--- a/archivos/trasiegoHoover.xlsx
+++ b/archivos/trasiegoHoover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF71D1-B6CD-425E-8BA9-4681FBFC130C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D21B8C-5838-4547-B0B7-029B24E5E568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -297,14 +297,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>856755</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -320,13 +320,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="2762250" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/archivos/trasiegoHoover.xlsx
+++ b/archivos/trasiegoHoover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D21B8C-5838-4547-B0B7-029B24E5E568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82ABF9-1259-45C7-9005-85017257F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Trazabilidad de Barriles y Rones Envejecidos</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Alcohol</t>
   </si>
   <si>
-    <t>Año alcohol</t>
-  </si>
-  <si>
     <t>Tanque Hoover</t>
   </si>
   <si>
@@ -61,6 +58,30 @@
   </si>
   <si>
     <t>Fecha fin:</t>
+  </si>
+  <si>
+    <t>Vaciado</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Tapa</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Tanque</t>
+  </si>
+  <si>
+    <t>Barriles</t>
   </si>
 </sst>
 </file>
@@ -119,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,11 +163,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -175,12 +242,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,16 +257,53 @@
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -303,8 +401,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -648,108 +746,107 @@
   <dimension ref="A1:R1010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="0.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
+    <col min="9" max="11" width="11.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
     <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18" t="s">
-        <v>10</v>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="17" t="s">
-        <v>11</v>
+      <c r="K5" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -763,199 +860,493 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
-      <c r="E8" s="12" t="s">
-        <v>2</v>
+      <c r="E8"/>
+      <c r="F8" s="21" t="s">
+        <v>16</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="28"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -963,8 +1354,15 @@
     </row>
     <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
@@ -972,8 +1370,15 @@
     </row>
     <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -981,8 +1386,15 @@
     </row>
     <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -990,8 +1402,15 @@
     </row>
     <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -999,8 +1418,15 @@
     </row>
     <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -1008,8 +1434,15 @@
     </row>
     <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -1017,8 +1450,15 @@
     </row>
     <row r="49" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D49" s="6"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -1026,8 +1466,15 @@
     </row>
     <row r="50" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D50" s="6"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
@@ -1035,8 +1482,15 @@
     </row>
     <row r="51" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D51" s="6"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
@@ -1044,8 +1498,15 @@
     </row>
     <row r="52" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D52" s="6"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
@@ -1053,8 +1514,15 @@
     </row>
     <row r="53" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D53" s="6"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
@@ -1062,8 +1530,15 @@
     </row>
     <row r="54" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D54" s="6"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
@@ -1071,8 +1546,15 @@
     </row>
     <row r="55" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D55" s="6"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
@@ -1080,8 +1562,15 @@
     </row>
     <row r="56" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D56" s="6"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -1089,8 +1578,15 @@
     </row>
     <row r="57" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D57" s="6"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
@@ -1098,8 +1594,15 @@
     </row>
     <row r="58" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D58" s="6"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
@@ -1107,8 +1610,15 @@
     </row>
     <row r="59" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D59" s="6"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -1116,8 +1626,15 @@
     </row>
     <row r="60" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D60" s="6"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -1125,8 +1642,15 @@
     </row>
     <row r="61" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D61" s="6"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
@@ -1134,8 +1658,15 @@
     </row>
     <row r="62" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D62" s="6"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -1143,8 +1674,15 @@
     </row>
     <row r="63" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D63" s="6"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
@@ -1152,8 +1690,15 @@
     </row>
     <row r="64" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D64" s="6"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
@@ -1161,8 +1706,15 @@
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D65" s="6"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
@@ -1170,8 +1722,15 @@
     </row>
     <row r="66" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D66" s="6"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -1179,8 +1738,15 @@
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D67" s="6"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
@@ -1188,8 +1754,15 @@
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D68" s="6"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -1197,8 +1770,15 @@
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
@@ -1206,8 +1786,15 @@
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
@@ -1215,8 +1802,15 @@
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
@@ -1224,8 +1818,15 @@
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
@@ -1233,8 +1834,15 @@
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
@@ -1242,8 +1850,15 @@
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
@@ -1251,8 +1866,15 @@
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -1260,8 +1882,15 @@
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
@@ -1269,8 +1898,15 @@
     </row>
     <row r="77" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
@@ -1278,8 +1914,15 @@
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
@@ -1287,8 +1930,15 @@
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
@@ -1296,8 +1946,15 @@
     </row>
     <row r="80" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
@@ -1305,8 +1962,15 @@
     </row>
     <row r="81" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D81" s="6"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
@@ -1314,8 +1978,15 @@
     </row>
     <row r="82" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D82" s="6"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
@@ -1323,8 +1994,15 @@
     </row>
     <row r="83" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D83" s="6"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
@@ -1332,8 +2010,15 @@
     </row>
     <row r="84" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D84" s="6"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
@@ -1341,8 +2026,15 @@
     </row>
     <row r="85" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D85" s="6"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
@@ -1350,8 +2042,15 @@
     </row>
     <row r="86" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D86" s="6"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -1359,8 +2058,15 @@
     </row>
     <row r="87" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D87" s="6"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
@@ -1368,8 +2074,15 @@
     </row>
     <row r="88" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D88" s="6"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
@@ -1377,8 +2090,15 @@
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D89" s="6"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
@@ -1386,8 +2106,15 @@
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D90" s="6"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
@@ -1395,8 +2122,15 @@
     </row>
     <row r="91" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D91" s="6"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
@@ -1404,8 +2138,15 @@
     </row>
     <row r="92" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D92" s="6"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
@@ -1413,8 +2154,15 @@
     </row>
     <row r="93" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D93" s="6"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
@@ -1422,8 +2170,15 @@
     </row>
     <row r="94" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D94" s="6"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
@@ -1431,8 +2186,15 @@
     </row>
     <row r="95" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D95" s="6"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
@@ -1440,8 +2202,15 @@
     </row>
     <row r="96" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D96" s="6"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
@@ -1449,8 +2218,15 @@
     </row>
     <row r="97" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D97" s="6"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
@@ -1458,8 +2234,15 @@
     </row>
     <row r="98" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D98" s="6"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
@@ -1467,8 +2250,15 @@
     </row>
     <row r="99" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D99" s="6"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
@@ -1476,8 +2266,15 @@
     </row>
     <row r="100" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
@@ -1485,8 +2282,15 @@
     </row>
     <row r="101" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D101" s="6"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
@@ -1494,8 +2298,15 @@
     </row>
     <row r="102" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D102" s="6"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
@@ -1503,8 +2314,15 @@
     </row>
     <row r="103" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D103" s="6"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
@@ -1512,8 +2330,15 @@
     </row>
     <row r="104" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D104" s="6"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
@@ -1521,8 +2346,15 @@
     </row>
     <row r="105" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D105" s="6"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
@@ -1530,8 +2362,15 @@
     </row>
     <row r="106" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D106" s="6"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
@@ -1539,8 +2378,15 @@
     </row>
     <row r="107" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
@@ -1548,8 +2394,15 @@
     </row>
     <row r="108" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
@@ -1557,8 +2410,15 @@
     </row>
     <row r="109" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
@@ -1566,8 +2426,15 @@
     </row>
     <row r="110" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
@@ -1575,8 +2442,15 @@
     </row>
     <row r="111" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
@@ -1584,8 +2458,15 @@
     </row>
     <row r="112" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
@@ -1593,8 +2474,15 @@
     </row>
     <row r="113" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
@@ -1602,8 +2490,15 @@
     </row>
     <row r="114" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
@@ -1611,8 +2506,15 @@
     </row>
     <row r="115" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
@@ -1620,8 +2522,15 @@
     </row>
     <row r="116" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
@@ -1629,8 +2538,15 @@
     </row>
     <row r="117" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
@@ -1638,8 +2554,15 @@
     </row>
     <row r="118" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
@@ -1647,8 +2570,15 @@
     </row>
     <row r="119" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
@@ -1656,8 +2586,15 @@
     </row>
     <row r="120" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="25"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
@@ -1665,8 +2602,15 @@
     </row>
     <row r="121" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
@@ -1674,8 +2618,15 @@
     </row>
     <row r="122" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
@@ -1683,8 +2634,15 @@
     </row>
     <row r="123" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
@@ -1692,8 +2650,15 @@
     </row>
     <row r="124" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
@@ -1701,8 +2666,15 @@
     </row>
     <row r="125" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
@@ -1710,8 +2682,15 @@
     </row>
     <row r="126" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
@@ -1719,8 +2698,15 @@
     </row>
     <row r="127" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
@@ -1728,8 +2714,15 @@
     </row>
     <row r="128" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
@@ -1737,8 +2730,15 @@
     </row>
     <row r="129" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
@@ -1746,8 +2746,15 @@
     </row>
     <row r="130" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
@@ -1755,8 +2762,15 @@
     </row>
     <row r="131" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="25"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
@@ -1764,8 +2778,15 @@
     </row>
     <row r="132" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
@@ -1773,8 +2794,15 @@
     </row>
     <row r="133" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
@@ -1782,8 +2810,15 @@
     </row>
     <row r="134" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
@@ -1791,8 +2826,15 @@
     </row>
     <row r="135" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
@@ -1800,8 +2842,15 @@
     </row>
     <row r="136" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
@@ -1809,8 +2858,15 @@
     </row>
     <row r="137" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
@@ -1818,8 +2874,15 @@
     </row>
     <row r="138" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
@@ -1827,8 +2890,15 @@
     </row>
     <row r="139" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
@@ -1836,8 +2906,15 @@
     </row>
     <row r="140" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
@@ -1845,8 +2922,15 @@
     </row>
     <row r="141" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
@@ -1854,8 +2938,15 @@
     </row>
     <row r="142" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="25"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="29"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
@@ -1863,8 +2954,15 @@
     </row>
     <row r="143" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="29"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
@@ -1872,8 +2970,15 @@
     </row>
     <row r="144" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
@@ -1881,8 +2986,15 @@
     </row>
     <row r="145" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="29"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
@@ -1890,8 +3002,15 @@
     </row>
     <row r="146" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
@@ -1899,8 +3018,15 @@
     </row>
     <row r="147" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
@@ -1908,8 +3034,15 @@
     </row>
     <row r="148" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
@@ -1917,8 +3050,15 @@
     </row>
     <row r="149" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="29"/>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
@@ -1926,8 +3066,15 @@
     </row>
     <row r="150" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
@@ -1935,8 +3082,15 @@
     </row>
     <row r="151" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
@@ -1944,8 +3098,15 @@
     </row>
     <row r="152" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="29"/>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
@@ -1953,8 +3114,15 @@
     </row>
     <row r="153" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
@@ -1962,8 +3130,15 @@
     </row>
     <row r="154" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
@@ -1971,8 +3146,15 @@
     </row>
     <row r="155" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
@@ -1980,8 +3162,15 @@
     </row>
     <row r="156" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
@@ -1989,8 +3178,15 @@
     </row>
     <row r="157" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="29"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
@@ -1998,8 +3194,15 @@
     </row>
     <row r="158" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="29"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
@@ -2007,8 +3210,15 @@
     </row>
     <row r="159" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
@@ -2016,8 +3226,15 @@
     </row>
     <row r="160" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
@@ -2025,8 +3242,15 @@
     </row>
     <row r="161" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="25"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
@@ -2034,8 +3258,15 @@
     </row>
     <row r="162" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="25"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
@@ -2043,8 +3274,15 @@
     </row>
     <row r="163" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="25"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
@@ -2052,8 +3290,15 @@
     </row>
     <row r="164" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D164" s="6"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="25"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
@@ -2061,8 +3306,15 @@
     </row>
     <row r="165" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D165" s="6"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="25"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
@@ -2070,8 +3322,15 @@
     </row>
     <row r="166" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D166" s="6"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="25"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
@@ -2079,8 +3338,15 @@
     </row>
     <row r="167" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D167" s="6"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="25"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="29"/>
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
@@ -2088,8 +3354,15 @@
     </row>
     <row r="168" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D168" s="6"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="25"/>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
@@ -2097,8 +3370,15 @@
     </row>
     <row r="169" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D169" s="6"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="26"/>
+      <c r="J169" s="26"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="25"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="29"/>
       <c r="O169" s="5"/>
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
@@ -2106,8 +3386,15 @@
     </row>
     <row r="170" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D170" s="6"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="25"/>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
       <c r="O170" s="5"/>
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
@@ -2115,8 +3402,15 @@
     </row>
     <row r="171" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D171" s="6"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="25"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29"/>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
@@ -2124,8 +3418,15 @@
     </row>
     <row r="172" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D172" s="6"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="29"/>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
@@ -2133,8 +3434,15 @@
     </row>
     <row r="173" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D173" s="6"/>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="25"/>
+      <c r="M173" s="29"/>
+      <c r="N173" s="29"/>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
@@ -2142,8 +3450,15 @@
     </row>
     <row r="174" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D174" s="6"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="26"/>
+      <c r="J174" s="26"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="25"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
@@ -2151,8 +3466,15 @@
     </row>
     <row r="175" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D175" s="6"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="25"/>
+      <c r="M175" s="29"/>
+      <c r="N175" s="29"/>
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
@@ -2160,8 +3482,15 @@
     </row>
     <row r="176" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D176" s="6"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="25"/>
+      <c r="M176" s="29"/>
+      <c r="N176" s="29"/>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
@@ -2169,8 +3498,15 @@
     </row>
     <row r="177" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D177" s="6"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="25"/>
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
@@ -2178,8 +3514,15 @@
     </row>
     <row r="178" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D178" s="6"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="25"/>
+      <c r="M178" s="29"/>
+      <c r="N178" s="29"/>
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
@@ -2187,8 +3530,15 @@
     </row>
     <row r="179" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D179" s="6"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="26"/>
+      <c r="J179" s="26"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="25"/>
+      <c r="M179" s="29"/>
+      <c r="N179" s="29"/>
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
@@ -2196,8 +3546,15 @@
     </row>
     <row r="180" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D180" s="6"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="25"/>
+      <c r="M180" s="29"/>
+      <c r="N180" s="29"/>
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
@@ -2205,8 +3562,15 @@
     </row>
     <row r="181" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D181" s="6"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="26"/>
+      <c r="J181" s="26"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="25"/>
+      <c r="M181" s="29"/>
+      <c r="N181" s="29"/>
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
@@ -2214,8 +3578,15 @@
     </row>
     <row r="182" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D182" s="6"/>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="26"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="25"/>
+      <c r="M182" s="29"/>
+      <c r="N182" s="29"/>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
@@ -2223,8 +3594,15 @@
     </row>
     <row r="183" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D183" s="6"/>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="26"/>
+      <c r="J183" s="26"/>
+      <c r="K183" s="26"/>
+      <c r="L183" s="25"/>
+      <c r="M183" s="29"/>
+      <c r="N183" s="29"/>
       <c r="O183" s="5"/>
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
@@ -2232,8 +3610,15 @@
     </row>
     <row r="184" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D184" s="6"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="26"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="25"/>
+      <c r="M184" s="29"/>
+      <c r="N184" s="29"/>
       <c r="O184" s="5"/>
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
@@ -2241,8 +3626,15 @@
     </row>
     <row r="185" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D185" s="6"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="26"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="26"/>
+      <c r="J185" s="26"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="25"/>
+      <c r="M185" s="29"/>
+      <c r="N185" s="29"/>
       <c r="O185" s="5"/>
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
@@ -2250,8 +3642,15 @@
     </row>
     <row r="186" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D186" s="6"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="29"/>
+      <c r="N186" s="29"/>
       <c r="O186" s="5"/>
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
@@ -2259,8 +3658,15 @@
     </row>
     <row r="187" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D187" s="6"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="26"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="26"/>
+      <c r="J187" s="26"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="29"/>
+      <c r="N187" s="29"/>
       <c r="O187" s="5"/>
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
@@ -2268,8 +3674,15 @@
     </row>
     <row r="188" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D188" s="6"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="25"/>
+      <c r="M188" s="29"/>
+      <c r="N188" s="29"/>
       <c r="O188" s="5"/>
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
@@ -2277,8 +3690,15 @@
     </row>
     <row r="189" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D189" s="6"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="26"/>
+      <c r="J189" s="26"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="25"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="29"/>
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
@@ -2286,8 +3706,15 @@
     </row>
     <row r="190" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D190" s="6"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
+      <c r="F190" s="25"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="26"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="25"/>
+      <c r="M190" s="29"/>
+      <c r="N190" s="29"/>
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
@@ -2295,8 +3722,15 @@
     </row>
     <row r="191" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D191" s="6"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
+      <c r="F191" s="25"/>
+      <c r="G191" s="26"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="26"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="25"/>
+      <c r="M191" s="29"/>
+      <c r="N191" s="29"/>
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
@@ -2304,8 +3738,15 @@
     </row>
     <row r="192" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D192" s="6"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="26"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="26"/>
+      <c r="K192" s="26"/>
+      <c r="L192" s="25"/>
+      <c r="M192" s="29"/>
+      <c r="N192" s="29"/>
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
@@ -2313,8 +3754,15 @@
     </row>
     <row r="193" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D193" s="6"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="26"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="25"/>
+      <c r="M193" s="29"/>
+      <c r="N193" s="29"/>
       <c r="O193" s="5"/>
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
@@ -2322,8 +3770,15 @@
     </row>
     <row r="194" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D194" s="6"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="26"/>
+      <c r="J194" s="26"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="25"/>
+      <c r="M194" s="29"/>
+      <c r="N194" s="29"/>
       <c r="O194" s="5"/>
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
@@ -2331,8 +3786,15 @@
     </row>
     <row r="195" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D195" s="6"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
+      <c r="F195" s="25"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="25"/>
+      <c r="M195" s="29"/>
+      <c r="N195" s="29"/>
       <c r="O195" s="5"/>
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
@@ -2340,8 +3802,15 @@
     </row>
     <row r="196" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D196" s="6"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
+      <c r="F196" s="25"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="25"/>
+      <c r="M196" s="29"/>
+      <c r="N196" s="29"/>
       <c r="O196" s="5"/>
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
@@ -2349,8 +3818,15 @@
     </row>
     <row r="197" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D197" s="6"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
+      <c r="F197" s="25"/>
+      <c r="G197" s="26"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="26"/>
+      <c r="J197" s="26"/>
+      <c r="K197" s="26"/>
+      <c r="L197" s="25"/>
+      <c r="M197" s="29"/>
+      <c r="N197" s="29"/>
       <c r="O197" s="5"/>
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
@@ -2358,8 +3834,8 @@
     </row>
     <row r="198" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D198" s="6"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
+      <c r="M198" s="29"/>
+      <c r="N198" s="29"/>
       <c r="O198" s="5"/>
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
@@ -2376,24 +3852,71 @@
     </row>
     <row r="200" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D200" s="6"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
+      <c r="E200" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="31"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="32"/>
+      <c r="J200" s="32"/>
+      <c r="K200" s="32"/>
+      <c r="L200" s="32"/>
+      <c r="M200" s="32"/>
+      <c r="N200" s="32"/>
+      <c r="O200" s="32"/>
+      <c r="P200" s="32"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
     </row>
     <row r="201" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D201" s="6"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
+      <c r="E201" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H201" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I201" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J201" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K201" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L201" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M201" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N201" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O201" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P201" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="Q201" s="5"/>
       <c r="R201" s="5"/>
     </row>
     <row r="202" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D202" s="6"/>
+      <c r="E202" s="22"/>
+      <c r="G202" s="23"/>
+      <c r="L202" s="22"/>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
@@ -2403,15 +3926,20 @@
     </row>
     <row r="203" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D203" s="6"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="23"/>
+      <c r="J203" s="22"/>
+      <c r="L203" s="22"/>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
+      <c r="O203" s="24"/>
       <c r="P203" s="5"/>
       <c r="Q203" s="5"/>
       <c r="R203" s="5"/>
     </row>
     <row r="204" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D204" s="6"/>
+      <c r="L204" s="22"/>
       <c r="M204" s="5"/>
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
@@ -2421,6 +3949,7 @@
     </row>
     <row r="205" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D205" s="6"/>
+      <c r="L205" s="22"/>
       <c r="M205" s="5"/>
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
@@ -2430,6 +3959,7 @@
     </row>
     <row r="206" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D206" s="6"/>
+      <c r="L206" s="22"/>
       <c r="M206" s="5"/>
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
@@ -2439,6 +3969,7 @@
     </row>
     <row r="207" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D207" s="6"/>
+      <c r="L207" s="22"/>
       <c r="M207" s="5"/>
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
@@ -2448,6 +3979,7 @@
     </row>
     <row r="208" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D208" s="6"/>
+      <c r="L208" s="22"/>
       <c r="M208" s="5"/>
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
@@ -2457,6 +3989,7 @@
     </row>
     <row r="209" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D209" s="6"/>
+      <c r="L209" s="22"/>
       <c r="M209" s="5"/>
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
@@ -2466,6 +3999,7 @@
     </row>
     <row r="210" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D210" s="6"/>
+      <c r="L210" s="22"/>
       <c r="M210" s="5"/>
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
@@ -2475,6 +4009,7 @@
     </row>
     <row r="211" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D211" s="6"/>
+      <c r="L211" s="22"/>
       <c r="M211" s="5"/>
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
@@ -2484,6 +4019,7 @@
     </row>
     <row r="212" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D212" s="6"/>
+      <c r="L212" s="22"/>
       <c r="M212" s="5"/>
       <c r="N212" s="5"/>
       <c r="O212" s="5"/>
@@ -2493,6 +4029,7 @@
     </row>
     <row r="213" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D213" s="6"/>
+      <c r="L213" s="22"/>
       <c r="M213" s="5"/>
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
@@ -2502,6 +4039,7 @@
     </row>
     <row r="214" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D214" s="6"/>
+      <c r="L214" s="22"/>
       <c r="M214" s="5"/>
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
@@ -2511,6 +4049,7 @@
     </row>
     <row r="215" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D215" s="6"/>
+      <c r="L215" s="22"/>
       <c r="M215" s="5"/>
       <c r="N215" s="5"/>
       <c r="O215" s="5"/>
@@ -2520,6 +4059,7 @@
     </row>
     <row r="216" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D216" s="6"/>
+      <c r="L216" s="22"/>
       <c r="M216" s="5"/>
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
@@ -2529,6 +4069,7 @@
     </row>
     <row r="217" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D217" s="6"/>
+      <c r="L217" s="22"/>
       <c r="M217" s="5"/>
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
@@ -2538,6 +4079,7 @@
     </row>
     <row r="218" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D218" s="6"/>
+      <c r="L218" s="22"/>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
@@ -2547,6 +4089,7 @@
     </row>
     <row r="219" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D219" s="6"/>
+      <c r="L219" s="22"/>
       <c r="M219" s="5"/>
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
@@ -2556,6 +4099,7 @@
     </row>
     <row r="220" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D220" s="6"/>
+      <c r="L220" s="22"/>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
@@ -2565,6 +4109,7 @@
     </row>
     <row r="221" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D221" s="6"/>
+      <c r="L221" s="22"/>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
@@ -2574,6 +4119,7 @@
     </row>
     <row r="222" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D222" s="6"/>
+      <c r="L222" s="22"/>
       <c r="M222" s="5"/>
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
@@ -2583,6 +4129,7 @@
     </row>
     <row r="223" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D223" s="6"/>
+      <c r="L223" s="22"/>
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
@@ -2592,6 +4139,7 @@
     </row>
     <row r="224" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D224" s="6"/>
+      <c r="L224" s="22"/>
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
@@ -2601,6 +4149,7 @@
     </row>
     <row r="225" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D225" s="6"/>
+      <c r="L225" s="22"/>
       <c r="M225" s="5"/>
       <c r="N225" s="5"/>
       <c r="O225" s="5"/>
@@ -2610,6 +4159,7 @@
     </row>
     <row r="226" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D226" s="6"/>
+      <c r="L226" s="22"/>
       <c r="M226" s="5"/>
       <c r="N226" s="5"/>
       <c r="O226" s="5"/>
@@ -2619,6 +4169,7 @@
     </row>
     <row r="227" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D227" s="6"/>
+      <c r="L227" s="22"/>
       <c r="M227" s="5"/>
       <c r="N227" s="5"/>
       <c r="O227" s="5"/>
@@ -2628,6 +4179,7 @@
     </row>
     <row r="228" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D228" s="6"/>
+      <c r="L228" s="22"/>
       <c r="M228" s="5"/>
       <c r="N228" s="5"/>
       <c r="O228" s="5"/>
@@ -2637,6 +4189,7 @@
     </row>
     <row r="229" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D229" s="6"/>
+      <c r="L229" s="22"/>
       <c r="M229" s="5"/>
       <c r="N229" s="5"/>
       <c r="O229" s="5"/>
@@ -2646,6 +4199,7 @@
     </row>
     <row r="230" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D230" s="6"/>
+      <c r="L230" s="22"/>
       <c r="M230" s="5"/>
       <c r="N230" s="5"/>
       <c r="O230" s="5"/>
@@ -2655,6 +4209,7 @@
     </row>
     <row r="231" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D231" s="6"/>
+      <c r="L231" s="22"/>
       <c r="M231" s="5"/>
       <c r="N231" s="5"/>
       <c r="O231" s="5"/>
@@ -2664,6 +4219,7 @@
     </row>
     <row r="232" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D232" s="6"/>
+      <c r="L232" s="22"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
       <c r="O232" s="5"/>
@@ -2673,6 +4229,7 @@
     </row>
     <row r="233" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D233" s="6"/>
+      <c r="L233" s="22"/>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
       <c r="O233" s="5"/>
@@ -2682,6 +4239,7 @@
     </row>
     <row r="234" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D234" s="6"/>
+      <c r="L234" s="22"/>
       <c r="M234" s="5"/>
       <c r="N234" s="5"/>
       <c r="O234" s="5"/>
@@ -2691,6 +4249,7 @@
     </row>
     <row r="235" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D235" s="6"/>
+      <c r="L235" s="22"/>
       <c r="M235" s="5"/>
       <c r="N235" s="5"/>
       <c r="O235" s="5"/>
@@ -2700,6 +4259,7 @@
     </row>
     <row r="236" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D236" s="6"/>
+      <c r="L236" s="22"/>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
       <c r="O236" s="5"/>
@@ -2709,6 +4269,7 @@
     </row>
     <row r="237" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D237" s="6"/>
+      <c r="L237" s="22"/>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
       <c r="O237" s="5"/>
@@ -2718,6 +4279,7 @@
     </row>
     <row r="238" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D238" s="6"/>
+      <c r="L238" s="22"/>
       <c r="M238" s="5"/>
       <c r="N238" s="5"/>
       <c r="O238" s="5"/>
@@ -2727,6 +4289,7 @@
     </row>
     <row r="239" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D239" s="6"/>
+      <c r="L239" s="22"/>
       <c r="M239" s="5"/>
       <c r="N239" s="5"/>
       <c r="O239" s="5"/>
@@ -2736,6 +4299,7 @@
     </row>
     <row r="240" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D240" s="6"/>
+      <c r="L240" s="22"/>
       <c r="M240" s="5"/>
       <c r="N240" s="5"/>
       <c r="O240" s="5"/>
@@ -2745,6 +4309,7 @@
     </row>
     <row r="241" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D241" s="6"/>
+      <c r="L241" s="22"/>
       <c r="M241" s="5"/>
       <c r="N241" s="5"/>
       <c r="O241" s="5"/>
@@ -2754,6 +4319,7 @@
     </row>
     <row r="242" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D242" s="6"/>
+      <c r="L242" s="22"/>
       <c r="M242" s="5"/>
       <c r="N242" s="5"/>
       <c r="O242" s="5"/>
@@ -2763,6 +4329,7 @@
     </row>
     <row r="243" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D243" s="6"/>
+      <c r="L243" s="22"/>
       <c r="M243" s="5"/>
       <c r="N243" s="5"/>
       <c r="O243" s="5"/>
@@ -2772,6 +4339,7 @@
     </row>
     <row r="244" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D244" s="6"/>
+      <c r="L244" s="22"/>
       <c r="M244" s="5"/>
       <c r="N244" s="5"/>
       <c r="O244" s="5"/>
@@ -2781,6 +4349,7 @@
     </row>
     <row r="245" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D245" s="6"/>
+      <c r="L245" s="22"/>
       <c r="M245" s="5"/>
       <c r="N245" s="5"/>
       <c r="O245" s="5"/>
@@ -2790,6 +4359,7 @@
     </row>
     <row r="246" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D246" s="6"/>
+      <c r="L246" s="22"/>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
       <c r="O246" s="5"/>
@@ -2799,6 +4369,7 @@
     </row>
     <row r="247" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D247" s="6"/>
+      <c r="L247" s="22"/>
       <c r="M247" s="5"/>
       <c r="N247" s="5"/>
       <c r="O247" s="5"/>
@@ -2808,6 +4379,7 @@
     </row>
     <row r="248" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D248" s="6"/>
+      <c r="L248" s="22"/>
       <c r="M248" s="5"/>
       <c r="N248" s="5"/>
       <c r="O248" s="5"/>
@@ -2817,6 +4389,7 @@
     </row>
     <row r="249" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D249" s="6"/>
+      <c r="L249" s="22"/>
       <c r="M249" s="5"/>
       <c r="N249" s="5"/>
       <c r="O249" s="5"/>
@@ -2826,6 +4399,7 @@
     </row>
     <row r="250" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D250" s="6"/>
+      <c r="L250" s="22"/>
       <c r="M250" s="5"/>
       <c r="N250" s="5"/>
       <c r="O250" s="5"/>
@@ -2835,6 +4409,7 @@
     </row>
     <row r="251" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D251" s="6"/>
+      <c r="L251" s="22"/>
       <c r="M251" s="5"/>
       <c r="N251" s="5"/>
       <c r="O251" s="5"/>
@@ -2844,6 +4419,7 @@
     </row>
     <row r="252" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D252" s="6"/>
+      <c r="L252" s="22"/>
       <c r="M252" s="5"/>
       <c r="N252" s="5"/>
       <c r="O252" s="5"/>
@@ -2853,6 +4429,7 @@
     </row>
     <row r="253" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D253" s="6"/>
+      <c r="L253" s="22"/>
       <c r="M253" s="5"/>
       <c r="N253" s="5"/>
       <c r="O253" s="5"/>
@@ -2862,6 +4439,7 @@
     </row>
     <row r="254" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D254" s="6"/>
+      <c r="L254" s="22"/>
       <c r="M254" s="5"/>
       <c r="N254" s="5"/>
       <c r="O254" s="5"/>
@@ -2871,6 +4449,7 @@
     </row>
     <row r="255" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D255" s="6"/>
+      <c r="L255" s="22"/>
       <c r="M255" s="5"/>
       <c r="N255" s="5"/>
       <c r="O255" s="5"/>
@@ -2880,6 +4459,7 @@
     </row>
     <row r="256" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D256" s="6"/>
+      <c r="L256" s="22"/>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
       <c r="O256" s="5"/>
@@ -2889,6 +4469,7 @@
     </row>
     <row r="257" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D257" s="6"/>
+      <c r="L257" s="22"/>
       <c r="M257" s="5"/>
       <c r="N257" s="5"/>
       <c r="O257" s="5"/>
@@ -2898,6 +4479,7 @@
     </row>
     <row r="258" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D258" s="6"/>
+      <c r="L258" s="22"/>
       <c r="M258" s="5"/>
       <c r="N258" s="5"/>
       <c r="O258" s="5"/>
@@ -2907,6 +4489,7 @@
     </row>
     <row r="259" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D259" s="6"/>
+      <c r="L259" s="22"/>
       <c r="M259" s="5"/>
       <c r="N259" s="5"/>
       <c r="O259" s="5"/>
@@ -2916,6 +4499,7 @@
     </row>
     <row r="260" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D260" s="6"/>
+      <c r="L260" s="22"/>
       <c r="M260" s="5"/>
       <c r="N260" s="5"/>
       <c r="O260" s="5"/>
@@ -2925,6 +4509,7 @@
     </row>
     <row r="261" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D261" s="6"/>
+      <c r="L261" s="22"/>
       <c r="M261" s="5"/>
       <c r="N261" s="5"/>
       <c r="O261" s="5"/>
@@ -2934,6 +4519,7 @@
     </row>
     <row r="262" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D262" s="6"/>
+      <c r="L262" s="22"/>
       <c r="M262" s="5"/>
       <c r="N262" s="5"/>
       <c r="O262" s="5"/>
@@ -2943,6 +4529,7 @@
     </row>
     <row r="263" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D263" s="6"/>
+      <c r="L263" s="22"/>
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
       <c r="O263" s="5"/>
@@ -2952,6 +4539,7 @@
     </row>
     <row r="264" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D264" s="6"/>
+      <c r="L264" s="22"/>
       <c r="M264" s="5"/>
       <c r="N264" s="5"/>
       <c r="O264" s="5"/>
@@ -2961,6 +4549,7 @@
     </row>
     <row r="265" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D265" s="6"/>
+      <c r="L265" s="22"/>
       <c r="M265" s="5"/>
       <c r="N265" s="5"/>
       <c r="O265" s="5"/>
@@ -2970,6 +4559,7 @@
     </row>
     <row r="266" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D266" s="6"/>
+      <c r="L266" s="22"/>
       <c r="M266" s="5"/>
       <c r="N266" s="5"/>
       <c r="O266" s="5"/>
@@ -2979,6 +4569,7 @@
     </row>
     <row r="267" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D267" s="6"/>
+      <c r="L267" s="22"/>
       <c r="M267" s="5"/>
       <c r="N267" s="5"/>
       <c r="O267" s="5"/>
@@ -2988,6 +4579,7 @@
     </row>
     <row r="268" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D268" s="6"/>
+      <c r="L268" s="22"/>
       <c r="M268" s="5"/>
       <c r="N268" s="5"/>
       <c r="O268" s="5"/>
@@ -2997,6 +4589,7 @@
     </row>
     <row r="269" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D269" s="6"/>
+      <c r="L269" s="22"/>
       <c r="M269" s="5"/>
       <c r="N269" s="5"/>
       <c r="O269" s="5"/>
@@ -3006,6 +4599,7 @@
     </row>
     <row r="270" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D270" s="6"/>
+      <c r="L270" s="22"/>
       <c r="M270" s="5"/>
       <c r="N270" s="5"/>
       <c r="O270" s="5"/>
@@ -3015,6 +4609,7 @@
     </row>
     <row r="271" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D271" s="6"/>
+      <c r="L271" s="22"/>
       <c r="M271" s="5"/>
       <c r="N271" s="5"/>
       <c r="O271" s="5"/>
@@ -3024,6 +4619,7 @@
     </row>
     <row r="272" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D272" s="6"/>
+      <c r="L272" s="22"/>
       <c r="M272" s="5"/>
       <c r="N272" s="5"/>
       <c r="O272" s="5"/>
@@ -3033,6 +4629,7 @@
     </row>
     <row r="273" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D273" s="6"/>
+      <c r="L273" s="22"/>
       <c r="M273" s="5"/>
       <c r="N273" s="5"/>
       <c r="O273" s="5"/>
@@ -3042,6 +4639,7 @@
     </row>
     <row r="274" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D274" s="6"/>
+      <c r="L274" s="22"/>
       <c r="M274" s="5"/>
       <c r="N274" s="5"/>
       <c r="O274" s="5"/>
@@ -3051,6 +4649,7 @@
     </row>
     <row r="275" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D275" s="6"/>
+      <c r="L275" s="22"/>
       <c r="M275" s="5"/>
       <c r="N275" s="5"/>
       <c r="O275" s="5"/>
@@ -3060,6 +4659,7 @@
     </row>
     <row r="276" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D276" s="6"/>
+      <c r="L276" s="22"/>
       <c r="M276" s="5"/>
       <c r="N276" s="5"/>
       <c r="O276" s="5"/>
@@ -3069,6 +4669,7 @@
     </row>
     <row r="277" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D277" s="6"/>
+      <c r="L277" s="22"/>
       <c r="M277" s="5"/>
       <c r="N277" s="5"/>
       <c r="O277" s="5"/>
@@ -3078,6 +4679,7 @@
     </row>
     <row r="278" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D278" s="6"/>
+      <c r="L278" s="22"/>
       <c r="M278" s="5"/>
       <c r="N278" s="5"/>
       <c r="O278" s="5"/>
@@ -3087,6 +4689,7 @@
     </row>
     <row r="279" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D279" s="6"/>
+      <c r="L279" s="22"/>
       <c r="M279" s="5"/>
       <c r="N279" s="5"/>
       <c r="O279" s="5"/>
@@ -3096,6 +4699,7 @@
     </row>
     <row r="280" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D280" s="6"/>
+      <c r="L280" s="22"/>
       <c r="M280" s="5"/>
       <c r="N280" s="5"/>
       <c r="O280" s="5"/>
@@ -3105,6 +4709,7 @@
     </row>
     <row r="281" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D281" s="6"/>
+      <c r="L281" s="22"/>
       <c r="M281" s="5"/>
       <c r="N281" s="5"/>
       <c r="O281" s="5"/>
@@ -3114,6 +4719,7 @@
     </row>
     <row r="282" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D282" s="6"/>
+      <c r="L282" s="22"/>
       <c r="M282" s="5"/>
       <c r="N282" s="5"/>
       <c r="O282" s="5"/>
@@ -3123,6 +4729,7 @@
     </row>
     <row r="283" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D283" s="6"/>
+      <c r="L283" s="22"/>
       <c r="M283" s="5"/>
       <c r="N283" s="5"/>
       <c r="O283" s="5"/>
@@ -3132,6 +4739,7 @@
     </row>
     <row r="284" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D284" s="6"/>
+      <c r="L284" s="22"/>
       <c r="M284" s="5"/>
       <c r="N284" s="5"/>
       <c r="O284" s="5"/>
@@ -3141,6 +4749,7 @@
     </row>
     <row r="285" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D285" s="6"/>
+      <c r="L285" s="22"/>
       <c r="M285" s="5"/>
       <c r="N285" s="5"/>
       <c r="O285" s="5"/>
@@ -3150,6 +4759,7 @@
     </row>
     <row r="286" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D286" s="6"/>
+      <c r="L286" s="22"/>
       <c r="M286" s="5"/>
       <c r="N286" s="5"/>
       <c r="O286" s="5"/>
@@ -3159,6 +4769,7 @@
     </row>
     <row r="287" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D287" s="6"/>
+      <c r="L287" s="22"/>
       <c r="M287" s="5"/>
       <c r="N287" s="5"/>
       <c r="O287" s="5"/>
@@ -3168,6 +4779,7 @@
     </row>
     <row r="288" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D288" s="6"/>
+      <c r="L288" s="22"/>
       <c r="M288" s="5"/>
       <c r="N288" s="5"/>
       <c r="O288" s="5"/>
@@ -3177,6 +4789,7 @@
     </row>
     <row r="289" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D289" s="6"/>
+      <c r="L289" s="22"/>
       <c r="M289" s="5"/>
       <c r="N289" s="5"/>
       <c r="O289" s="5"/>
@@ -3186,6 +4799,7 @@
     </row>
     <row r="290" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D290" s="6"/>
+      <c r="L290" s="22"/>
       <c r="M290" s="5"/>
       <c r="N290" s="5"/>
       <c r="O290" s="5"/>
@@ -3195,6 +4809,7 @@
     </row>
     <row r="291" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D291" s="6"/>
+      <c r="L291" s="22"/>
       <c r="M291" s="5"/>
       <c r="N291" s="5"/>
       <c r="O291" s="5"/>
@@ -3204,6 +4819,7 @@
     </row>
     <row r="292" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D292" s="6"/>
+      <c r="L292" s="22"/>
       <c r="M292" s="5"/>
       <c r="N292" s="5"/>
       <c r="O292" s="5"/>
@@ -3213,6 +4829,7 @@
     </row>
     <row r="293" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D293" s="6"/>
+      <c r="L293" s="22"/>
       <c r="M293" s="5"/>
       <c r="N293" s="5"/>
       <c r="O293" s="5"/>
@@ -3222,6 +4839,7 @@
     </row>
     <row r="294" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D294" s="6"/>
+      <c r="L294" s="22"/>
       <c r="M294" s="5"/>
       <c r="N294" s="5"/>
       <c r="O294" s="5"/>
@@ -3231,6 +4849,7 @@
     </row>
     <row r="295" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D295" s="6"/>
+      <c r="L295" s="22"/>
       <c r="M295" s="5"/>
       <c r="N295" s="5"/>
       <c r="O295" s="5"/>
@@ -3240,6 +4859,7 @@
     </row>
     <row r="296" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D296" s="6"/>
+      <c r="L296" s="22"/>
       <c r="M296" s="5"/>
       <c r="N296" s="5"/>
       <c r="O296" s="5"/>
@@ -3249,6 +4869,7 @@
     </row>
     <row r="297" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D297" s="6"/>
+      <c r="L297" s="22"/>
       <c r="M297" s="5"/>
       <c r="N297" s="5"/>
       <c r="O297" s="5"/>
@@ -3258,6 +4879,7 @@
     </row>
     <row r="298" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D298" s="6"/>
+      <c r="L298" s="22"/>
       <c r="M298" s="5"/>
       <c r="N298" s="5"/>
       <c r="O298" s="5"/>
@@ -3267,6 +4889,7 @@
     </row>
     <row r="299" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D299" s="6"/>
+      <c r="L299" s="22"/>
       <c r="M299" s="5"/>
       <c r="N299" s="5"/>
       <c r="O299" s="5"/>
@@ -3276,6 +4899,7 @@
     </row>
     <row r="300" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D300" s="6"/>
+      <c r="L300" s="22"/>
       <c r="M300" s="5"/>
       <c r="N300" s="5"/>
       <c r="O300" s="5"/>
@@ -3285,6 +4909,7 @@
     </row>
     <row r="301" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D301" s="6"/>
+      <c r="L301" s="22"/>
       <c r="M301" s="5"/>
       <c r="N301" s="5"/>
       <c r="O301" s="5"/>
@@ -3294,6 +4919,7 @@
     </row>
     <row r="302" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D302" s="6"/>
+      <c r="L302" s="22"/>
       <c r="M302" s="5"/>
       <c r="N302" s="5"/>
       <c r="O302" s="5"/>
@@ -3303,6 +4929,7 @@
     </row>
     <row r="303" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D303" s="6"/>
+      <c r="L303" s="22"/>
       <c r="M303" s="5"/>
       <c r="N303" s="5"/>
       <c r="O303" s="5"/>
@@ -3312,6 +4939,7 @@
     </row>
     <row r="304" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D304" s="6"/>
+      <c r="L304" s="22"/>
       <c r="M304" s="5"/>
       <c r="N304" s="5"/>
       <c r="O304" s="5"/>
@@ -3321,6 +4949,7 @@
     </row>
     <row r="305" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D305" s="6"/>
+      <c r="L305" s="22"/>
       <c r="M305" s="5"/>
       <c r="N305" s="5"/>
       <c r="O305" s="5"/>
@@ -3330,6 +4959,7 @@
     </row>
     <row r="306" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D306" s="6"/>
+      <c r="L306" s="22"/>
       <c r="M306" s="5"/>
       <c r="N306" s="5"/>
       <c r="O306" s="5"/>
@@ -3339,6 +4969,7 @@
     </row>
     <row r="307" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D307" s="6"/>
+      <c r="L307" s="22"/>
       <c r="M307" s="5"/>
       <c r="N307" s="5"/>
       <c r="O307" s="5"/>
@@ -3348,6 +4979,7 @@
     </row>
     <row r="308" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D308" s="6"/>
+      <c r="L308" s="22"/>
       <c r="M308" s="5"/>
       <c r="N308" s="5"/>
       <c r="O308" s="5"/>
@@ -3357,6 +4989,7 @@
     </row>
     <row r="309" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D309" s="6"/>
+      <c r="L309" s="22"/>
       <c r="M309" s="5"/>
       <c r="N309" s="5"/>
       <c r="O309" s="5"/>
@@ -3366,6 +4999,7 @@
     </row>
     <row r="310" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D310" s="6"/>
+      <c r="L310" s="22"/>
       <c r="M310" s="5"/>
       <c r="N310" s="5"/>
       <c r="O310" s="5"/>
@@ -3375,6 +5009,7 @@
     </row>
     <row r="311" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D311" s="6"/>
+      <c r="L311" s="22"/>
       <c r="M311" s="5"/>
       <c r="N311" s="5"/>
       <c r="O311" s="5"/>
@@ -3384,6 +5019,7 @@
     </row>
     <row r="312" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D312" s="6"/>
+      <c r="L312" s="22"/>
       <c r="M312" s="5"/>
       <c r="N312" s="5"/>
       <c r="O312" s="5"/>
@@ -3393,6 +5029,7 @@
     </row>
     <row r="313" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D313" s="6"/>
+      <c r="L313" s="22"/>
       <c r="M313" s="5"/>
       <c r="N313" s="5"/>
       <c r="O313" s="5"/>
@@ -3402,6 +5039,7 @@
     </row>
     <row r="314" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D314" s="6"/>
+      <c r="L314" s="22"/>
       <c r="M314" s="5"/>
       <c r="N314" s="5"/>
       <c r="O314" s="5"/>
@@ -3411,6 +5049,7 @@
     </row>
     <row r="315" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D315" s="6"/>
+      <c r="L315" s="22"/>
       <c r="M315" s="5"/>
       <c r="N315" s="5"/>
       <c r="O315" s="5"/>
@@ -3420,6 +5059,7 @@
     </row>
     <row r="316" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D316" s="6"/>
+      <c r="L316" s="22"/>
       <c r="M316" s="5"/>
       <c r="N316" s="5"/>
       <c r="O316" s="5"/>
@@ -3429,6 +5069,7 @@
     </row>
     <row r="317" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D317" s="6"/>
+      <c r="L317" s="22"/>
       <c r="M317" s="5"/>
       <c r="N317" s="5"/>
       <c r="O317" s="5"/>
@@ -3438,6 +5079,7 @@
     </row>
     <row r="318" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D318" s="6"/>
+      <c r="L318" s="22"/>
       <c r="M318" s="5"/>
       <c r="N318" s="5"/>
       <c r="O318" s="5"/>
@@ -3447,6 +5089,7 @@
     </row>
     <row r="319" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D319" s="6"/>
+      <c r="L319" s="22"/>
       <c r="M319" s="5"/>
       <c r="N319" s="5"/>
       <c r="O319" s="5"/>
@@ -3456,6 +5099,7 @@
     </row>
     <row r="320" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D320" s="6"/>
+      <c r="L320" s="22"/>
       <c r="M320" s="5"/>
       <c r="N320" s="5"/>
       <c r="O320" s="5"/>
@@ -3465,6 +5109,7 @@
     </row>
     <row r="321" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D321" s="6"/>
+      <c r="L321" s="22"/>
       <c r="M321" s="5"/>
       <c r="N321" s="5"/>
       <c r="O321" s="5"/>
@@ -3474,6 +5119,7 @@
     </row>
     <row r="322" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D322" s="6"/>
+      <c r="L322" s="22"/>
       <c r="M322" s="5"/>
       <c r="N322" s="5"/>
       <c r="O322" s="5"/>
@@ -3483,6 +5129,7 @@
     </row>
     <row r="323" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D323" s="6"/>
+      <c r="L323" s="22"/>
       <c r="M323" s="5"/>
       <c r="N323" s="5"/>
       <c r="O323" s="5"/>
@@ -3492,6 +5139,7 @@
     </row>
     <row r="324" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D324" s="6"/>
+      <c r="L324" s="22"/>
       <c r="M324" s="5"/>
       <c r="N324" s="5"/>
       <c r="O324" s="5"/>
@@ -3501,6 +5149,7 @@
     </row>
     <row r="325" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D325" s="6"/>
+      <c r="L325" s="22"/>
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
       <c r="O325" s="5"/>
@@ -3510,6 +5159,7 @@
     </row>
     <row r="326" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D326" s="6"/>
+      <c r="L326" s="22"/>
       <c r="M326" s="5"/>
       <c r="N326" s="5"/>
       <c r="O326" s="5"/>
@@ -3519,6 +5169,7 @@
     </row>
     <row r="327" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D327" s="6"/>
+      <c r="L327" s="22"/>
       <c r="M327" s="5"/>
       <c r="N327" s="5"/>
       <c r="O327" s="5"/>
@@ -3528,6 +5179,7 @@
     </row>
     <row r="328" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D328" s="6"/>
+      <c r="L328" s="22"/>
       <c r="M328" s="5"/>
       <c r="N328" s="5"/>
       <c r="O328" s="5"/>
@@ -3537,6 +5189,7 @@
     </row>
     <row r="329" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D329" s="6"/>
+      <c r="L329" s="22"/>
       <c r="M329" s="5"/>
       <c r="N329" s="5"/>
       <c r="O329" s="5"/>
@@ -3546,6 +5199,7 @@
     </row>
     <row r="330" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D330" s="6"/>
+      <c r="L330" s="22"/>
       <c r="M330" s="5"/>
       <c r="N330" s="5"/>
       <c r="O330" s="5"/>
@@ -3555,6 +5209,7 @@
     </row>
     <row r="331" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D331" s="6"/>
+      <c r="L331" s="22"/>
       <c r="M331" s="5"/>
       <c r="N331" s="5"/>
       <c r="O331" s="5"/>
@@ -3564,6 +5219,7 @@
     </row>
     <row r="332" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D332" s="6"/>
+      <c r="L332" s="22"/>
       <c r="M332" s="5"/>
       <c r="N332" s="5"/>
       <c r="O332" s="5"/>
@@ -3573,6 +5229,7 @@
     </row>
     <row r="333" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D333" s="6"/>
+      <c r="L333" s="22"/>
       <c r="M333" s="5"/>
       <c r="N333" s="5"/>
       <c r="O333" s="5"/>
@@ -3582,6 +5239,7 @@
     </row>
     <row r="334" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D334" s="6"/>
+      <c r="L334" s="22"/>
       <c r="M334" s="5"/>
       <c r="N334" s="5"/>
       <c r="O334" s="5"/>
@@ -3591,6 +5249,7 @@
     </row>
     <row r="335" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D335" s="6"/>
+      <c r="L335" s="22"/>
       <c r="M335" s="5"/>
       <c r="N335" s="5"/>
       <c r="O335" s="5"/>
@@ -3600,6 +5259,7 @@
     </row>
     <row r="336" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D336" s="6"/>
+      <c r="L336" s="22"/>
       <c r="M336" s="5"/>
       <c r="N336" s="5"/>
       <c r="O336" s="5"/>
@@ -3609,6 +5269,7 @@
     </row>
     <row r="337" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D337" s="6"/>
+      <c r="L337" s="22"/>
       <c r="M337" s="5"/>
       <c r="N337" s="5"/>
       <c r="O337" s="5"/>
@@ -3618,6 +5279,7 @@
     </row>
     <row r="338" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D338" s="6"/>
+      <c r="L338" s="22"/>
       <c r="M338" s="5"/>
       <c r="N338" s="5"/>
       <c r="O338" s="5"/>
@@ -3627,6 +5289,7 @@
     </row>
     <row r="339" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D339" s="6"/>
+      <c r="L339" s="22"/>
       <c r="M339" s="5"/>
       <c r="N339" s="5"/>
       <c r="O339" s="5"/>
@@ -3636,6 +5299,7 @@
     </row>
     <row r="340" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D340" s="6"/>
+      <c r="L340" s="22"/>
       <c r="M340" s="5"/>
       <c r="N340" s="5"/>
       <c r="O340" s="5"/>
@@ -3645,6 +5309,7 @@
     </row>
     <row r="341" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D341" s="6"/>
+      <c r="L341" s="22"/>
       <c r="M341" s="5"/>
       <c r="N341" s="5"/>
       <c r="O341" s="5"/>
@@ -3654,6 +5319,7 @@
     </row>
     <row r="342" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D342" s="6"/>
+      <c r="L342" s="22"/>
       <c r="M342" s="5"/>
       <c r="N342" s="5"/>
       <c r="O342" s="5"/>
@@ -3663,6 +5329,7 @@
     </row>
     <row r="343" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D343" s="6"/>
+      <c r="L343" s="22"/>
       <c r="M343" s="5"/>
       <c r="N343" s="5"/>
       <c r="O343" s="5"/>
@@ -3672,6 +5339,7 @@
     </row>
     <row r="344" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D344" s="6"/>
+      <c r="L344" s="22"/>
       <c r="M344" s="5"/>
       <c r="N344" s="5"/>
       <c r="O344" s="5"/>
@@ -3681,6 +5349,7 @@
     </row>
     <row r="345" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D345" s="6"/>
+      <c r="L345" s="22"/>
       <c r="M345" s="5"/>
       <c r="N345" s="5"/>
       <c r="O345" s="5"/>
@@ -3690,6 +5359,7 @@
     </row>
     <row r="346" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D346" s="6"/>
+      <c r="L346" s="22"/>
       <c r="M346" s="5"/>
       <c r="N346" s="5"/>
       <c r="O346" s="5"/>
@@ -3699,6 +5369,7 @@
     </row>
     <row r="347" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D347" s="6"/>
+      <c r="L347" s="22"/>
       <c r="M347" s="5"/>
       <c r="N347" s="5"/>
       <c r="O347" s="5"/>
@@ -3708,6 +5379,7 @@
     </row>
     <row r="348" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D348" s="6"/>
+      <c r="L348" s="22"/>
       <c r="M348" s="5"/>
       <c r="N348" s="5"/>
       <c r="O348" s="5"/>
@@ -3717,6 +5389,7 @@
     </row>
     <row r="349" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D349" s="6"/>
+      <c r="L349" s="22"/>
       <c r="M349" s="5"/>
       <c r="N349" s="5"/>
       <c r="O349" s="5"/>
@@ -3726,6 +5399,7 @@
     </row>
     <row r="350" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D350" s="6"/>
+      <c r="L350" s="22"/>
       <c r="M350" s="5"/>
       <c r="N350" s="5"/>
       <c r="O350" s="5"/>
@@ -3735,6 +5409,7 @@
     </row>
     <row r="351" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D351" s="6"/>
+      <c r="L351" s="22"/>
       <c r="M351" s="5"/>
       <c r="N351" s="5"/>
       <c r="O351" s="5"/>
@@ -3744,6 +5419,7 @@
     </row>
     <row r="352" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D352" s="6"/>
+      <c r="L352" s="22"/>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
       <c r="O352" s="5"/>
@@ -3753,6 +5429,7 @@
     </row>
     <row r="353" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D353" s="6"/>
+      <c r="L353" s="22"/>
       <c r="M353" s="5"/>
       <c r="N353" s="5"/>
       <c r="O353" s="5"/>
@@ -3762,6 +5439,7 @@
     </row>
     <row r="354" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D354" s="6"/>
+      <c r="L354" s="22"/>
       <c r="M354" s="5"/>
       <c r="N354" s="5"/>
       <c r="O354" s="5"/>
@@ -3771,6 +5449,7 @@
     </row>
     <row r="355" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D355" s="6"/>
+      <c r="L355" s="22"/>
       <c r="M355" s="5"/>
       <c r="N355" s="5"/>
       <c r="O355" s="5"/>
@@ -3780,6 +5459,7 @@
     </row>
     <row r="356" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D356" s="6"/>
+      <c r="L356" s="22"/>
       <c r="M356" s="5"/>
       <c r="N356" s="5"/>
       <c r="O356" s="5"/>
@@ -3789,6 +5469,7 @@
     </row>
     <row r="357" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D357" s="6"/>
+      <c r="L357" s="22"/>
       <c r="M357" s="5"/>
       <c r="N357" s="5"/>
       <c r="O357" s="5"/>
@@ -3798,6 +5479,7 @@
     </row>
     <row r="358" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D358" s="6"/>
+      <c r="L358" s="22"/>
       <c r="M358" s="5"/>
       <c r="N358" s="5"/>
       <c r="O358" s="5"/>
@@ -3807,6 +5489,7 @@
     </row>
     <row r="359" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D359" s="6"/>
+      <c r="L359" s="22"/>
       <c r="M359" s="5"/>
       <c r="N359" s="5"/>
       <c r="O359" s="5"/>
@@ -3816,6 +5499,7 @@
     </row>
     <row r="360" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D360" s="6"/>
+      <c r="L360" s="22"/>
       <c r="M360" s="5"/>
       <c r="N360" s="5"/>
       <c r="O360" s="5"/>
@@ -3825,6 +5509,7 @@
     </row>
     <row r="361" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D361" s="6"/>
+      <c r="L361" s="22"/>
       <c r="M361" s="5"/>
       <c r="N361" s="5"/>
       <c r="O361" s="5"/>
@@ -3834,6 +5519,7 @@
     </row>
     <row r="362" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D362" s="6"/>
+      <c r="L362" s="22"/>
       <c r="M362" s="5"/>
       <c r="N362" s="5"/>
       <c r="O362" s="5"/>
@@ -3843,6 +5529,7 @@
     </row>
     <row r="363" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D363" s="6"/>
+      <c r="L363" s="22"/>
       <c r="M363" s="5"/>
       <c r="N363" s="5"/>
       <c r="O363" s="5"/>
@@ -3852,6 +5539,7 @@
     </row>
     <row r="364" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D364" s="6"/>
+      <c r="L364" s="22"/>
       <c r="M364" s="5"/>
       <c r="N364" s="5"/>
       <c r="O364" s="5"/>
@@ -3861,6 +5549,7 @@
     </row>
     <row r="365" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D365" s="6"/>
+      <c r="L365" s="22"/>
       <c r="M365" s="5"/>
       <c r="N365" s="5"/>
       <c r="O365" s="5"/>
@@ -3870,6 +5559,7 @@
     </row>
     <row r="366" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D366" s="6"/>
+      <c r="L366" s="22"/>
       <c r="M366" s="5"/>
       <c r="N366" s="5"/>
       <c r="O366" s="5"/>
@@ -3879,6 +5569,7 @@
     </row>
     <row r="367" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D367" s="6"/>
+      <c r="L367" s="22"/>
       <c r="M367" s="5"/>
       <c r="N367" s="5"/>
       <c r="O367" s="5"/>
@@ -3888,6 +5579,7 @@
     </row>
     <row r="368" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D368" s="6"/>
+      <c r="L368" s="22"/>
       <c r="M368" s="5"/>
       <c r="N368" s="5"/>
       <c r="O368" s="5"/>
@@ -3897,6 +5589,7 @@
     </row>
     <row r="369" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D369" s="6"/>
+      <c r="L369" s="22"/>
       <c r="M369" s="5"/>
       <c r="N369" s="5"/>
       <c r="O369" s="5"/>
@@ -3906,6 +5599,7 @@
     </row>
     <row r="370" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D370" s="6"/>
+      <c r="L370" s="22"/>
       <c r="M370" s="5"/>
       <c r="N370" s="5"/>
       <c r="O370" s="5"/>
@@ -3915,6 +5609,7 @@
     </row>
     <row r="371" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D371" s="6"/>
+      <c r="L371" s="22"/>
       <c r="M371" s="5"/>
       <c r="N371" s="5"/>
       <c r="O371" s="5"/>
@@ -3924,6 +5619,7 @@
     </row>
     <row r="372" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D372" s="6"/>
+      <c r="L372" s="22"/>
       <c r="M372" s="5"/>
       <c r="N372" s="5"/>
       <c r="O372" s="5"/>
@@ -3933,6 +5629,7 @@
     </row>
     <row r="373" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D373" s="6"/>
+      <c r="L373" s="22"/>
       <c r="M373" s="5"/>
       <c r="N373" s="5"/>
       <c r="O373" s="5"/>
@@ -3942,6 +5639,7 @@
     </row>
     <row r="374" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D374" s="6"/>
+      <c r="L374" s="22"/>
       <c r="M374" s="5"/>
       <c r="N374" s="5"/>
       <c r="O374" s="5"/>
@@ -3951,6 +5649,7 @@
     </row>
     <row r="375" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D375" s="6"/>
+      <c r="L375" s="22"/>
       <c r="M375" s="5"/>
       <c r="N375" s="5"/>
       <c r="O375" s="5"/>
@@ -3960,6 +5659,7 @@
     </row>
     <row r="376" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D376" s="6"/>
+      <c r="L376" s="22"/>
       <c r="M376" s="5"/>
       <c r="N376" s="5"/>
       <c r="O376" s="5"/>
@@ -3969,6 +5669,7 @@
     </row>
     <row r="377" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D377" s="6"/>
+      <c r="L377" s="22"/>
       <c r="M377" s="5"/>
       <c r="N377" s="5"/>
       <c r="O377" s="5"/>
@@ -3978,6 +5679,7 @@
     </row>
     <row r="378" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D378" s="6"/>
+      <c r="L378" s="22"/>
       <c r="M378" s="5"/>
       <c r="N378" s="5"/>
       <c r="O378" s="5"/>
@@ -3987,6 +5689,7 @@
     </row>
     <row r="379" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D379" s="6"/>
+      <c r="L379" s="22"/>
       <c r="M379" s="5"/>
       <c r="N379" s="5"/>
       <c r="O379" s="5"/>
@@ -3996,6 +5699,7 @@
     </row>
     <row r="380" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D380" s="6"/>
+      <c r="L380" s="22"/>
       <c r="M380" s="5"/>
       <c r="N380" s="5"/>
       <c r="O380" s="5"/>
@@ -4005,6 +5709,7 @@
     </row>
     <row r="381" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D381" s="6"/>
+      <c r="L381" s="22"/>
       <c r="M381" s="5"/>
       <c r="N381" s="5"/>
       <c r="O381" s="5"/>
@@ -4014,6 +5719,7 @@
     </row>
     <row r="382" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D382" s="6"/>
+      <c r="L382" s="22"/>
       <c r="M382" s="5"/>
       <c r="N382" s="5"/>
       <c r="O382" s="5"/>
@@ -4023,6 +5729,7 @@
     </row>
     <row r="383" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D383" s="6"/>
+      <c r="L383" s="22"/>
       <c r="M383" s="5"/>
       <c r="N383" s="5"/>
       <c r="O383" s="5"/>
@@ -4032,6 +5739,7 @@
     </row>
     <row r="384" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D384" s="6"/>
+      <c r="L384" s="22"/>
       <c r="M384" s="5"/>
       <c r="N384" s="5"/>
       <c r="O384" s="5"/>
@@ -4041,6 +5749,7 @@
     </row>
     <row r="385" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D385" s="6"/>
+      <c r="L385" s="22"/>
       <c r="M385" s="5"/>
       <c r="N385" s="5"/>
       <c r="O385" s="5"/>
@@ -4050,6 +5759,7 @@
     </row>
     <row r="386" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D386" s="6"/>
+      <c r="L386" s="22"/>
       <c r="M386" s="5"/>
       <c r="N386" s="5"/>
       <c r="O386" s="5"/>
@@ -4059,6 +5769,7 @@
     </row>
     <row r="387" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D387" s="6"/>
+      <c r="L387" s="22"/>
       <c r="M387" s="5"/>
       <c r="N387" s="5"/>
       <c r="O387" s="5"/>
@@ -4068,6 +5779,7 @@
     </row>
     <row r="388" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D388" s="6"/>
+      <c r="L388" s="22"/>
       <c r="M388" s="5"/>
       <c r="N388" s="5"/>
       <c r="O388" s="5"/>
@@ -4077,6 +5789,7 @@
     </row>
     <row r="389" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D389" s="6"/>
+      <c r="L389" s="22"/>
       <c r="M389" s="5"/>
       <c r="N389" s="5"/>
       <c r="O389" s="5"/>
@@ -4086,6 +5799,7 @@
     </row>
     <row r="390" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D390" s="6"/>
+      <c r="L390" s="22"/>
       <c r="M390" s="5"/>
       <c r="N390" s="5"/>
       <c r="O390" s="5"/>
@@ -4095,6 +5809,7 @@
     </row>
     <row r="391" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D391" s="6"/>
+      <c r="L391" s="22"/>
       <c r="M391" s="5"/>
       <c r="N391" s="5"/>
       <c r="O391" s="5"/>
@@ -4104,6 +5819,7 @@
     </row>
     <row r="392" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D392" s="6"/>
+      <c r="L392" s="22"/>
       <c r="M392" s="5"/>
       <c r="N392" s="5"/>
       <c r="O392" s="5"/>
@@ -4113,6 +5829,7 @@
     </row>
     <row r="393" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D393" s="6"/>
+      <c r="L393" s="22"/>
       <c r="M393" s="5"/>
       <c r="N393" s="5"/>
       <c r="O393" s="5"/>
@@ -4122,6 +5839,7 @@
     </row>
     <row r="394" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D394" s="6"/>
+      <c r="L394" s="22"/>
       <c r="M394" s="5"/>
       <c r="N394" s="5"/>
       <c r="O394" s="5"/>
@@ -4131,6 +5849,7 @@
     </row>
     <row r="395" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D395" s="6"/>
+      <c r="L395" s="22"/>
       <c r="M395" s="5"/>
       <c r="N395" s="5"/>
       <c r="O395" s="5"/>
@@ -4140,6 +5859,7 @@
     </row>
     <row r="396" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D396" s="6"/>
+      <c r="L396" s="22"/>
       <c r="M396" s="5"/>
       <c r="N396" s="5"/>
       <c r="O396" s="5"/>
@@ -4149,6 +5869,7 @@
     </row>
     <row r="397" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D397" s="6"/>
+      <c r="L397" s="22"/>
       <c r="M397" s="5"/>
       <c r="N397" s="5"/>
       <c r="O397" s="5"/>
@@ -4158,6 +5879,7 @@
     </row>
     <row r="398" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D398" s="6"/>
+      <c r="L398" s="22"/>
       <c r="M398" s="5"/>
       <c r="N398" s="5"/>
       <c r="O398" s="5"/>
@@ -4167,6 +5889,7 @@
     </row>
     <row r="399" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D399" s="6"/>
+      <c r="L399" s="22"/>
       <c r="M399" s="5"/>
       <c r="N399" s="5"/>
       <c r="O399" s="5"/>
@@ -4176,6 +5899,7 @@
     </row>
     <row r="400" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D400" s="6"/>
+      <c r="L400" s="22"/>
       <c r="M400" s="5"/>
       <c r="N400" s="5"/>
       <c r="O400" s="5"/>
@@ -4185,6 +5909,7 @@
     </row>
     <row r="401" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D401" s="6"/>
+      <c r="L401" s="22"/>
       <c r="M401" s="5"/>
       <c r="N401" s="5"/>
       <c r="O401" s="5"/>
@@ -4194,6 +5919,7 @@
     </row>
     <row r="402" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D402" s="6"/>
+      <c r="L402" s="22"/>
       <c r="M402" s="5"/>
       <c r="N402" s="5"/>
       <c r="O402" s="5"/>
@@ -4203,6 +5929,7 @@
     </row>
     <row r="403" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D403" s="6"/>
+      <c r="L403" s="22"/>
       <c r="M403" s="5"/>
       <c r="N403" s="5"/>
       <c r="O403" s="5"/>
@@ -4212,6 +5939,7 @@
     </row>
     <row r="404" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D404" s="6"/>
+      <c r="L404" s="22"/>
       <c r="M404" s="5"/>
       <c r="N404" s="5"/>
       <c r="O404" s="5"/>
@@ -4221,6 +5949,7 @@
     </row>
     <row r="405" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D405" s="6"/>
+      <c r="L405" s="22"/>
       <c r="M405" s="5"/>
       <c r="N405" s="5"/>
       <c r="O405" s="5"/>
@@ -4230,6 +5959,7 @@
     </row>
     <row r="406" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D406" s="6"/>
+      <c r="L406" s="22"/>
       <c r="M406" s="5"/>
       <c r="N406" s="5"/>
       <c r="O406" s="5"/>
@@ -4239,6 +5969,7 @@
     </row>
     <row r="407" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D407" s="6"/>
+      <c r="L407" s="22"/>
       <c r="M407" s="5"/>
       <c r="N407" s="5"/>
       <c r="O407" s="5"/>
@@ -4248,6 +5979,7 @@
     </row>
     <row r="408" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D408" s="6"/>
+      <c r="L408" s="22"/>
       <c r="M408" s="5"/>
       <c r="N408" s="5"/>
       <c r="O408" s="5"/>
@@ -4257,6 +5989,7 @@
     </row>
     <row r="409" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D409" s="6"/>
+      <c r="L409" s="22"/>
       <c r="M409" s="5"/>
       <c r="N409" s="5"/>
       <c r="O409" s="5"/>
@@ -4266,6 +5999,7 @@
     </row>
     <row r="410" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D410" s="6"/>
+      <c r="L410" s="22"/>
       <c r="M410" s="5"/>
       <c r="N410" s="5"/>
       <c r="O410" s="5"/>
@@ -4275,6 +6009,7 @@
     </row>
     <row r="411" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D411" s="6"/>
+      <c r="L411" s="22"/>
       <c r="M411" s="5"/>
       <c r="N411" s="5"/>
       <c r="O411" s="5"/>
@@ -4284,6 +6019,7 @@
     </row>
     <row r="412" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D412" s="6"/>
+      <c r="L412" s="22"/>
       <c r="M412" s="5"/>
       <c r="N412" s="5"/>
       <c r="O412" s="5"/>
@@ -4293,6 +6029,7 @@
     </row>
     <row r="413" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D413" s="6"/>
+      <c r="L413" s="22"/>
       <c r="M413" s="5"/>
       <c r="N413" s="5"/>
       <c r="O413" s="5"/>
@@ -4302,6 +6039,7 @@
     </row>
     <row r="414" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D414" s="6"/>
+      <c r="L414" s="22"/>
       <c r="M414" s="5"/>
       <c r="N414" s="5"/>
       <c r="O414" s="5"/>
@@ -4311,6 +6049,7 @@
     </row>
     <row r="415" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D415" s="6"/>
+      <c r="L415" s="22"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
       <c r="O415" s="5"/>
@@ -4320,6 +6059,7 @@
     </row>
     <row r="416" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D416" s="6"/>
+      <c r="L416" s="22"/>
       <c r="M416" s="5"/>
       <c r="N416" s="5"/>
       <c r="O416" s="5"/>
@@ -4329,6 +6069,7 @@
     </row>
     <row r="417" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D417" s="6"/>
+      <c r="L417" s="22"/>
       <c r="M417" s="5"/>
       <c r="N417" s="5"/>
       <c r="O417" s="5"/>
@@ -4338,6 +6079,7 @@
     </row>
     <row r="418" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D418" s="6"/>
+      <c r="L418" s="22"/>
       <c r="M418" s="5"/>
       <c r="N418" s="5"/>
       <c r="O418" s="5"/>
@@ -4347,6 +6089,7 @@
     </row>
     <row r="419" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D419" s="6"/>
+      <c r="L419" s="22"/>
       <c r="M419" s="5"/>
       <c r="N419" s="5"/>
       <c r="O419" s="5"/>
@@ -4356,6 +6099,7 @@
     </row>
     <row r="420" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D420" s="6"/>
+      <c r="L420" s="22"/>
       <c r="M420" s="5"/>
       <c r="N420" s="5"/>
       <c r="O420" s="5"/>
@@ -4365,6 +6109,7 @@
     </row>
     <row r="421" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D421" s="6"/>
+      <c r="L421" s="22"/>
       <c r="M421" s="5"/>
       <c r="N421" s="5"/>
       <c r="O421" s="5"/>
@@ -4374,6 +6119,7 @@
     </row>
     <row r="422" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D422" s="6"/>
+      <c r="L422" s="22"/>
       <c r="M422" s="5"/>
       <c r="N422" s="5"/>
       <c r="O422" s="5"/>
@@ -4383,6 +6129,7 @@
     </row>
     <row r="423" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D423" s="6"/>
+      <c r="L423" s="22"/>
       <c r="M423" s="5"/>
       <c r="N423" s="5"/>
       <c r="O423" s="5"/>
@@ -4392,6 +6139,7 @@
     </row>
     <row r="424" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D424" s="6"/>
+      <c r="L424" s="22"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
       <c r="O424" s="5"/>
@@ -4401,6 +6149,7 @@
     </row>
     <row r="425" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D425" s="6"/>
+      <c r="L425" s="22"/>
       <c r="M425" s="5"/>
       <c r="N425" s="5"/>
       <c r="O425" s="5"/>
@@ -4410,6 +6159,7 @@
     </row>
     <row r="426" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D426" s="6"/>
+      <c r="L426" s="22"/>
       <c r="M426" s="5"/>
       <c r="N426" s="5"/>
       <c r="O426" s="5"/>
@@ -4419,6 +6169,7 @@
     </row>
     <row r="427" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D427" s="6"/>
+      <c r="L427" s="22"/>
       <c r="M427" s="5"/>
       <c r="N427" s="5"/>
       <c r="O427" s="5"/>
@@ -4428,6 +6179,7 @@
     </row>
     <row r="428" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D428" s="6"/>
+      <c r="L428" s="22"/>
       <c r="M428" s="5"/>
       <c r="N428" s="5"/>
       <c r="O428" s="5"/>
@@ -4437,6 +6189,7 @@
     </row>
     <row r="429" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D429" s="6"/>
+      <c r="L429" s="22"/>
       <c r="M429" s="5"/>
       <c r="N429" s="5"/>
       <c r="O429" s="5"/>
@@ -4446,6 +6199,7 @@
     </row>
     <row r="430" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D430" s="6"/>
+      <c r="L430" s="22"/>
       <c r="M430" s="5"/>
       <c r="N430" s="5"/>
       <c r="O430" s="5"/>
@@ -4455,6 +6209,7 @@
     </row>
     <row r="431" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D431" s="6"/>
+      <c r="L431" s="22"/>
       <c r="M431" s="5"/>
       <c r="N431" s="5"/>
       <c r="O431" s="5"/>
@@ -4464,6 +6219,7 @@
     </row>
     <row r="432" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D432" s="6"/>
+      <c r="L432" s="22"/>
       <c r="M432" s="5"/>
       <c r="N432" s="5"/>
       <c r="O432" s="5"/>
@@ -4473,6 +6229,7 @@
     </row>
     <row r="433" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D433" s="6"/>
+      <c r="L433" s="22"/>
       <c r="M433" s="5"/>
       <c r="N433" s="5"/>
       <c r="O433" s="5"/>
@@ -4482,6 +6239,7 @@
     </row>
     <row r="434" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D434" s="6"/>
+      <c r="L434" s="22"/>
       <c r="M434" s="5"/>
       <c r="N434" s="5"/>
       <c r="O434" s="5"/>
@@ -4491,6 +6249,7 @@
     </row>
     <row r="435" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D435" s="6"/>
+      <c r="L435" s="22"/>
       <c r="M435" s="5"/>
       <c r="N435" s="5"/>
       <c r="O435" s="5"/>
@@ -4500,6 +6259,7 @@
     </row>
     <row r="436" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D436" s="6"/>
+      <c r="L436" s="22"/>
       <c r="M436" s="5"/>
       <c r="N436" s="5"/>
       <c r="O436" s="5"/>
@@ -4509,6 +6269,7 @@
     </row>
     <row r="437" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D437" s="6"/>
+      <c r="L437" s="22"/>
       <c r="M437" s="5"/>
       <c r="N437" s="5"/>
       <c r="O437" s="5"/>
@@ -4518,6 +6279,7 @@
     </row>
     <row r="438" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D438" s="6"/>
+      <c r="L438" s="22"/>
       <c r="M438" s="5"/>
       <c r="N438" s="5"/>
       <c r="O438" s="5"/>
@@ -4527,6 +6289,7 @@
     </row>
     <row r="439" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D439" s="6"/>
+      <c r="L439" s="22"/>
       <c r="M439" s="5"/>
       <c r="N439" s="5"/>
       <c r="O439" s="5"/>
@@ -4536,6 +6299,7 @@
     </row>
     <row r="440" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D440" s="6"/>
+      <c r="L440" s="22"/>
       <c r="M440" s="5"/>
       <c r="N440" s="5"/>
       <c r="O440" s="5"/>
@@ -4545,6 +6309,7 @@
     </row>
     <row r="441" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D441" s="6"/>
+      <c r="L441" s="22"/>
       <c r="M441" s="5"/>
       <c r="N441" s="5"/>
       <c r="O441" s="5"/>
@@ -4554,6 +6319,7 @@
     </row>
     <row r="442" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D442" s="6"/>
+      <c r="L442" s="22"/>
       <c r="M442" s="5"/>
       <c r="N442" s="5"/>
       <c r="O442" s="5"/>
@@ -4563,6 +6329,7 @@
     </row>
     <row r="443" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D443" s="6"/>
+      <c r="L443" s="22"/>
       <c r="M443" s="5"/>
       <c r="N443" s="5"/>
       <c r="O443" s="5"/>
@@ -4572,6 +6339,7 @@
     </row>
     <row r="444" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D444" s="6"/>
+      <c r="L444" s="22"/>
       <c r="M444" s="5"/>
       <c r="N444" s="5"/>
       <c r="O444" s="5"/>
@@ -4581,6 +6349,7 @@
     </row>
     <row r="445" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D445" s="6"/>
+      <c r="L445" s="22"/>
       <c r="M445" s="5"/>
       <c r="N445" s="5"/>
       <c r="O445" s="5"/>
@@ -4590,6 +6359,7 @@
     </row>
     <row r="446" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D446" s="6"/>
+      <c r="L446" s="22"/>
       <c r="M446" s="5"/>
       <c r="N446" s="5"/>
       <c r="O446" s="5"/>
@@ -4599,6 +6369,7 @@
     </row>
     <row r="447" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D447" s="6"/>
+      <c r="L447" s="22"/>
       <c r="M447" s="5"/>
       <c r="N447" s="5"/>
       <c r="O447" s="5"/>
@@ -4608,6 +6379,7 @@
     </row>
     <row r="448" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D448" s="6"/>
+      <c r="L448" s="22"/>
       <c r="M448" s="5"/>
       <c r="N448" s="5"/>
       <c r="O448" s="5"/>
@@ -4617,6 +6389,7 @@
     </row>
     <row r="449" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D449" s="6"/>
+      <c r="L449" s="22"/>
       <c r="M449" s="5"/>
       <c r="N449" s="5"/>
       <c r="O449" s="5"/>
@@ -4626,6 +6399,7 @@
     </row>
     <row r="450" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D450" s="6"/>
+      <c r="L450" s="22"/>
       <c r="M450" s="5"/>
       <c r="N450" s="5"/>
       <c r="O450" s="5"/>
@@ -4635,6 +6409,7 @@
     </row>
     <row r="451" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D451" s="6"/>
+      <c r="L451" s="22"/>
       <c r="M451" s="5"/>
       <c r="N451" s="5"/>
       <c r="O451" s="5"/>
@@ -4644,6 +6419,7 @@
     </row>
     <row r="452" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D452" s="6"/>
+      <c r="L452" s="22"/>
       <c r="M452" s="5"/>
       <c r="N452" s="5"/>
       <c r="O452" s="5"/>
@@ -4653,6 +6429,7 @@
     </row>
     <row r="453" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D453" s="6"/>
+      <c r="L453" s="22"/>
       <c r="M453" s="5"/>
       <c r="N453" s="5"/>
       <c r="O453" s="5"/>
@@ -4662,6 +6439,7 @@
     </row>
     <row r="454" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D454" s="6"/>
+      <c r="L454" s="22"/>
       <c r="M454" s="5"/>
       <c r="N454" s="5"/>
       <c r="O454" s="5"/>
@@ -4671,6 +6449,7 @@
     </row>
     <row r="455" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D455" s="6"/>
+      <c r="L455" s="22"/>
       <c r="M455" s="5"/>
       <c r="N455" s="5"/>
       <c r="O455" s="5"/>
@@ -4680,6 +6459,7 @@
     </row>
     <row r="456" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D456" s="6"/>
+      <c r="L456" s="22"/>
       <c r="M456" s="5"/>
       <c r="N456" s="5"/>
       <c r="O456" s="5"/>
@@ -4689,6 +6469,7 @@
     </row>
     <row r="457" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D457" s="6"/>
+      <c r="L457" s="22"/>
       <c r="M457" s="5"/>
       <c r="N457" s="5"/>
       <c r="O457" s="5"/>
@@ -4698,6 +6479,7 @@
     </row>
     <row r="458" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D458" s="6"/>
+      <c r="L458" s="22"/>
       <c r="M458" s="5"/>
       <c r="N458" s="5"/>
       <c r="O458" s="5"/>
@@ -4707,6 +6489,7 @@
     </row>
     <row r="459" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D459" s="6"/>
+      <c r="L459" s="22"/>
       <c r="M459" s="5"/>
       <c r="N459" s="5"/>
       <c r="O459" s="5"/>
@@ -4716,6 +6499,7 @@
     </row>
     <row r="460" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D460" s="6"/>
+      <c r="L460" s="22"/>
       <c r="M460" s="5"/>
       <c r="N460" s="5"/>
       <c r="O460" s="5"/>
@@ -4725,6 +6509,7 @@
     </row>
     <row r="461" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D461" s="6"/>
+      <c r="L461" s="22"/>
       <c r="M461" s="5"/>
       <c r="N461" s="5"/>
       <c r="O461" s="5"/>
@@ -4734,6 +6519,7 @@
     </row>
     <row r="462" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D462" s="6"/>
+      <c r="L462" s="22"/>
       <c r="M462" s="5"/>
       <c r="N462" s="5"/>
       <c r="O462" s="5"/>
@@ -4743,6 +6529,7 @@
     </row>
     <row r="463" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D463" s="6"/>
+      <c r="L463" s="22"/>
       <c r="M463" s="5"/>
       <c r="N463" s="5"/>
       <c r="O463" s="5"/>
@@ -4752,6 +6539,7 @@
     </row>
     <row r="464" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D464" s="6"/>
+      <c r="L464" s="22"/>
       <c r="M464" s="5"/>
       <c r="N464" s="5"/>
       <c r="O464" s="5"/>
@@ -4761,6 +6549,7 @@
     </row>
     <row r="465" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D465" s="6"/>
+      <c r="L465" s="22"/>
       <c r="M465" s="5"/>
       <c r="N465" s="5"/>
       <c r="O465" s="5"/>
@@ -4770,6 +6559,7 @@
     </row>
     <row r="466" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D466" s="6"/>
+      <c r="L466" s="22"/>
       <c r="M466" s="5"/>
       <c r="N466" s="5"/>
       <c r="O466" s="5"/>
@@ -4779,6 +6569,7 @@
     </row>
     <row r="467" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D467" s="6"/>
+      <c r="L467" s="22"/>
       <c r="M467" s="5"/>
       <c r="N467" s="5"/>
       <c r="O467" s="5"/>
@@ -4788,6 +6579,7 @@
     </row>
     <row r="468" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D468" s="6"/>
+      <c r="L468" s="22"/>
       <c r="M468" s="5"/>
       <c r="N468" s="5"/>
       <c r="O468" s="5"/>
@@ -4797,6 +6589,7 @@
     </row>
     <row r="469" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D469" s="6"/>
+      <c r="L469" s="22"/>
       <c r="M469" s="5"/>
       <c r="N469" s="5"/>
       <c r="O469" s="5"/>
@@ -4806,6 +6599,7 @@
     </row>
     <row r="470" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D470" s="6"/>
+      <c r="L470" s="22"/>
       <c r="M470" s="5"/>
       <c r="N470" s="5"/>
       <c r="O470" s="5"/>
@@ -4815,6 +6609,7 @@
     </row>
     <row r="471" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D471" s="6"/>
+      <c r="L471" s="22"/>
       <c r="M471" s="5"/>
       <c r="N471" s="5"/>
       <c r="O471" s="5"/>
@@ -4824,6 +6619,7 @@
     </row>
     <row r="472" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D472" s="6"/>
+      <c r="L472" s="22"/>
       <c r="M472" s="5"/>
       <c r="N472" s="5"/>
       <c r="O472" s="5"/>
@@ -4833,6 +6629,7 @@
     </row>
     <row r="473" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D473" s="6"/>
+      <c r="L473" s="22"/>
       <c r="M473" s="5"/>
       <c r="N473" s="5"/>
       <c r="O473" s="5"/>
@@ -4842,6 +6639,7 @@
     </row>
     <row r="474" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D474" s="6"/>
+      <c r="L474" s="22"/>
       <c r="M474" s="5"/>
       <c r="N474" s="5"/>
       <c r="O474" s="5"/>
@@ -4851,6 +6649,7 @@
     </row>
     <row r="475" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D475" s="6"/>
+      <c r="L475" s="22"/>
       <c r="M475" s="5"/>
       <c r="N475" s="5"/>
       <c r="O475" s="5"/>
@@ -4860,6 +6659,7 @@
     </row>
     <row r="476" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D476" s="6"/>
+      <c r="L476" s="22"/>
       <c r="M476" s="5"/>
       <c r="N476" s="5"/>
       <c r="O476" s="5"/>
@@ -4869,6 +6669,7 @@
     </row>
     <row r="477" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D477" s="6"/>
+      <c r="L477" s="22"/>
       <c r="M477" s="5"/>
       <c r="N477" s="5"/>
       <c r="O477" s="5"/>
@@ -4878,6 +6679,7 @@
     </row>
     <row r="478" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D478" s="6"/>
+      <c r="L478" s="22"/>
       <c r="M478" s="5"/>
       <c r="N478" s="5"/>
       <c r="O478" s="5"/>
@@ -4887,6 +6689,7 @@
     </row>
     <row r="479" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D479" s="6"/>
+      <c r="L479" s="22"/>
       <c r="M479" s="5"/>
       <c r="N479" s="5"/>
       <c r="O479" s="5"/>
@@ -4896,6 +6699,7 @@
     </row>
     <row r="480" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D480" s="6"/>
+      <c r="L480" s="22"/>
       <c r="M480" s="5"/>
       <c r="N480" s="5"/>
       <c r="O480" s="5"/>
@@ -4905,6 +6709,7 @@
     </row>
     <row r="481" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D481" s="6"/>
+      <c r="L481" s="22"/>
       <c r="M481" s="5"/>
       <c r="N481" s="5"/>
       <c r="O481" s="5"/>
@@ -4914,6 +6719,7 @@
     </row>
     <row r="482" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D482" s="6"/>
+      <c r="L482" s="22"/>
       <c r="M482" s="5"/>
       <c r="N482" s="5"/>
       <c r="O482" s="5"/>
@@ -4923,6 +6729,7 @@
     </row>
     <row r="483" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D483" s="6"/>
+      <c r="L483" s="22"/>
       <c r="M483" s="5"/>
       <c r="N483" s="5"/>
       <c r="O483" s="5"/>
@@ -4932,6 +6739,7 @@
     </row>
     <row r="484" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D484" s="6"/>
+      <c r="L484" s="22"/>
       <c r="M484" s="5"/>
       <c r="N484" s="5"/>
       <c r="O484" s="5"/>
@@ -4941,6 +6749,7 @@
     </row>
     <row r="485" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D485" s="6"/>
+      <c r="L485" s="22"/>
       <c r="M485" s="5"/>
       <c r="N485" s="5"/>
       <c r="O485" s="5"/>
@@ -4950,6 +6759,7 @@
     </row>
     <row r="486" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D486" s="6"/>
+      <c r="L486" s="22"/>
       <c r="M486" s="5"/>
       <c r="N486" s="5"/>
       <c r="O486" s="5"/>
@@ -4959,6 +6769,7 @@
     </row>
     <row r="487" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D487" s="6"/>
+      <c r="L487" s="22"/>
       <c r="M487" s="5"/>
       <c r="N487" s="5"/>
       <c r="O487" s="5"/>
@@ -4968,6 +6779,7 @@
     </row>
     <row r="488" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D488" s="6"/>
+      <c r="L488" s="22"/>
       <c r="M488" s="5"/>
       <c r="N488" s="5"/>
       <c r="O488" s="5"/>
@@ -4977,6 +6789,7 @@
     </row>
     <row r="489" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D489" s="6"/>
+      <c r="L489" s="22"/>
       <c r="M489" s="5"/>
       <c r="N489" s="5"/>
       <c r="O489" s="5"/>
@@ -4986,6 +6799,7 @@
     </row>
     <row r="490" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D490" s="6"/>
+      <c r="L490" s="22"/>
       <c r="M490" s="5"/>
       <c r="N490" s="5"/>
       <c r="O490" s="5"/>
@@ -4995,6 +6809,7 @@
     </row>
     <row r="491" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D491" s="6"/>
+      <c r="L491" s="22"/>
       <c r="M491" s="5"/>
       <c r="N491" s="5"/>
       <c r="O491" s="5"/>
@@ -5004,6 +6819,7 @@
     </row>
     <row r="492" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D492" s="6"/>
+      <c r="L492" s="22"/>
       <c r="M492" s="5"/>
       <c r="N492" s="5"/>
       <c r="O492" s="5"/>
@@ -5013,6 +6829,7 @@
     </row>
     <row r="493" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D493" s="6"/>
+      <c r="L493" s="22"/>
       <c r="M493" s="5"/>
       <c r="N493" s="5"/>
       <c r="O493" s="5"/>
@@ -5022,6 +6839,7 @@
     </row>
     <row r="494" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D494" s="6"/>
+      <c r="L494" s="22"/>
       <c r="M494" s="5"/>
       <c r="N494" s="5"/>
       <c r="O494" s="5"/>
@@ -5031,6 +6849,7 @@
     </row>
     <row r="495" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D495" s="6"/>
+      <c r="L495" s="22"/>
       <c r="M495" s="5"/>
       <c r="N495" s="5"/>
       <c r="O495" s="5"/>
@@ -5040,6 +6859,7 @@
     </row>
     <row r="496" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D496" s="6"/>
+      <c r="L496" s="22"/>
       <c r="M496" s="5"/>
       <c r="N496" s="5"/>
       <c r="O496" s="5"/>
@@ -5049,6 +6869,7 @@
     </row>
     <row r="497" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D497" s="6"/>
+      <c r="L497" s="22"/>
       <c r="M497" s="5"/>
       <c r="N497" s="5"/>
       <c r="O497" s="5"/>
@@ -5058,6 +6879,7 @@
     </row>
     <row r="498" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D498" s="6"/>
+      <c r="L498" s="22"/>
       <c r="M498" s="5"/>
       <c r="N498" s="5"/>
       <c r="O498" s="5"/>
@@ -5067,6 +6889,7 @@
     </row>
     <row r="499" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D499" s="6"/>
+      <c r="L499" s="22"/>
       <c r="M499" s="5"/>
       <c r="N499" s="5"/>
       <c r="O499" s="5"/>
@@ -5076,6 +6899,7 @@
     </row>
     <row r="500" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D500" s="6"/>
+      <c r="L500" s="22"/>
       <c r="M500" s="5"/>
       <c r="N500" s="5"/>
       <c r="O500" s="5"/>
@@ -5085,6 +6909,7 @@
     </row>
     <row r="501" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D501" s="6"/>
+      <c r="L501" s="22"/>
       <c r="M501" s="5"/>
       <c r="N501" s="5"/>
       <c r="O501" s="5"/>
@@ -5094,6 +6919,7 @@
     </row>
     <row r="502" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D502" s="6"/>
+      <c r="L502" s="22"/>
       <c r="M502" s="5"/>
       <c r="N502" s="5"/>
       <c r="O502" s="5"/>
@@ -5103,6 +6929,7 @@
     </row>
     <row r="503" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D503" s="6"/>
+      <c r="L503" s="22"/>
       <c r="M503" s="5"/>
       <c r="N503" s="5"/>
       <c r="O503" s="5"/>
@@ -5112,6 +6939,7 @@
     </row>
     <row r="504" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D504" s="6"/>
+      <c r="L504" s="22"/>
       <c r="M504" s="5"/>
       <c r="N504" s="5"/>
       <c r="O504" s="5"/>
@@ -5121,6 +6949,7 @@
     </row>
     <row r="505" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D505" s="6"/>
+      <c r="L505" s="22"/>
       <c r="M505" s="5"/>
       <c r="N505" s="5"/>
       <c r="O505" s="5"/>
@@ -5130,6 +6959,7 @@
     </row>
     <row r="506" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D506" s="6"/>
+      <c r="L506" s="22"/>
       <c r="M506" s="5"/>
       <c r="N506" s="5"/>
       <c r="O506" s="5"/>
@@ -5139,6 +6969,7 @@
     </row>
     <row r="507" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D507" s="6"/>
+      <c r="L507" s="22"/>
       <c r="M507" s="5"/>
       <c r="N507" s="5"/>
       <c r="O507" s="5"/>
@@ -5148,6 +6979,7 @@
     </row>
     <row r="508" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D508" s="6"/>
+      <c r="L508" s="22"/>
       <c r="M508" s="5"/>
       <c r="N508" s="5"/>
       <c r="O508" s="5"/>
@@ -5157,6 +6989,7 @@
     </row>
     <row r="509" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D509" s="6"/>
+      <c r="L509" s="22"/>
       <c r="M509" s="5"/>
       <c r="N509" s="5"/>
       <c r="O509" s="5"/>
@@ -5166,6 +6999,7 @@
     </row>
     <row r="510" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D510" s="6"/>
+      <c r="L510" s="22"/>
       <c r="M510" s="5"/>
       <c r="N510" s="5"/>
       <c r="O510" s="5"/>
@@ -5175,6 +7009,7 @@
     </row>
     <row r="511" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D511" s="6"/>
+      <c r="L511" s="22"/>
       <c r="M511" s="5"/>
       <c r="N511" s="5"/>
       <c r="O511" s="5"/>
@@ -5184,6 +7019,7 @@
     </row>
     <row r="512" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D512" s="6"/>
+      <c r="L512" s="22"/>
       <c r="M512" s="5"/>
       <c r="N512" s="5"/>
       <c r="O512" s="5"/>
@@ -5193,6 +7029,7 @@
     </row>
     <row r="513" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D513" s="6"/>
+      <c r="L513" s="22"/>
       <c r="M513" s="5"/>
       <c r="N513" s="5"/>
       <c r="O513" s="5"/>
@@ -5202,6 +7039,7 @@
     </row>
     <row r="514" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D514" s="6"/>
+      <c r="L514" s="22"/>
       <c r="M514" s="5"/>
       <c r="N514" s="5"/>
       <c r="O514" s="5"/>
@@ -5211,6 +7049,7 @@
     </row>
     <row r="515" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D515" s="6"/>
+      <c r="L515" s="22"/>
       <c r="M515" s="5"/>
       <c r="N515" s="5"/>
       <c r="O515" s="5"/>
@@ -5220,6 +7059,7 @@
     </row>
     <row r="516" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D516" s="6"/>
+      <c r="L516" s="22"/>
       <c r="M516" s="5"/>
       <c r="N516" s="5"/>
       <c r="O516" s="5"/>
@@ -5229,6 +7069,7 @@
     </row>
     <row r="517" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D517" s="6"/>
+      <c r="L517" s="22"/>
       <c r="M517" s="5"/>
       <c r="N517" s="5"/>
       <c r="O517" s="5"/>
@@ -5238,6 +7079,7 @@
     </row>
     <row r="518" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D518" s="6"/>
+      <c r="L518" s="22"/>
       <c r="M518" s="5"/>
       <c r="N518" s="5"/>
       <c r="O518" s="5"/>
@@ -5247,6 +7089,7 @@
     </row>
     <row r="519" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D519" s="6"/>
+      <c r="L519" s="22"/>
       <c r="M519" s="5"/>
       <c r="N519" s="5"/>
       <c r="O519" s="5"/>
@@ -5256,6 +7099,7 @@
     </row>
     <row r="520" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D520" s="6"/>
+      <c r="L520" s="22"/>
       <c r="M520" s="5"/>
       <c r="N520" s="5"/>
       <c r="O520" s="5"/>
@@ -5265,6 +7109,7 @@
     </row>
     <row r="521" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D521" s="6"/>
+      <c r="L521" s="22"/>
       <c r="M521" s="5"/>
       <c r="N521" s="5"/>
       <c r="O521" s="5"/>
@@ -5274,6 +7119,7 @@
     </row>
     <row r="522" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D522" s="6"/>
+      <c r="L522" s="22"/>
       <c r="M522" s="5"/>
       <c r="N522" s="5"/>
       <c r="O522" s="5"/>
@@ -5283,6 +7129,7 @@
     </row>
     <row r="523" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D523" s="6"/>
+      <c r="L523" s="22"/>
       <c r="M523" s="5"/>
       <c r="N523" s="5"/>
       <c r="O523" s="5"/>
@@ -5292,6 +7139,7 @@
     </row>
     <row r="524" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D524" s="6"/>
+      <c r="L524" s="22"/>
       <c r="M524" s="5"/>
       <c r="N524" s="5"/>
       <c r="O524" s="5"/>
@@ -5301,6 +7149,7 @@
     </row>
     <row r="525" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D525" s="6"/>
+      <c r="L525" s="22"/>
       <c r="M525" s="5"/>
       <c r="N525" s="5"/>
       <c r="O525" s="5"/>
@@ -5310,6 +7159,7 @@
     </row>
     <row r="526" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D526" s="6"/>
+      <c r="L526" s="22"/>
       <c r="M526" s="5"/>
       <c r="N526" s="5"/>
       <c r="O526" s="5"/>
@@ -5319,6 +7169,7 @@
     </row>
     <row r="527" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D527" s="6"/>
+      <c r="L527" s="22"/>
       <c r="M527" s="5"/>
       <c r="N527" s="5"/>
       <c r="O527" s="5"/>
@@ -5328,6 +7179,7 @@
     </row>
     <row r="528" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D528" s="6"/>
+      <c r="L528" s="22"/>
       <c r="M528" s="5"/>
       <c r="N528" s="5"/>
       <c r="O528" s="5"/>
@@ -5337,6 +7189,7 @@
     </row>
     <row r="529" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D529" s="6"/>
+      <c r="L529" s="22"/>
       <c r="M529" s="5"/>
       <c r="N529" s="5"/>
       <c r="O529" s="5"/>
@@ -5346,6 +7199,7 @@
     </row>
     <row r="530" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D530" s="6"/>
+      <c r="L530" s="22"/>
       <c r="M530" s="5"/>
       <c r="N530" s="5"/>
       <c r="O530" s="5"/>
@@ -5355,6 +7209,7 @@
     </row>
     <row r="531" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D531" s="6"/>
+      <c r="L531" s="22"/>
       <c r="M531" s="5"/>
       <c r="N531" s="5"/>
       <c r="O531" s="5"/>
@@ -5364,6 +7219,7 @@
     </row>
     <row r="532" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D532" s="6"/>
+      <c r="L532" s="22"/>
       <c r="M532" s="5"/>
       <c r="N532" s="5"/>
       <c r="O532" s="5"/>
@@ -5373,6 +7229,7 @@
     </row>
     <row r="533" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D533" s="6"/>
+      <c r="L533" s="22"/>
       <c r="M533" s="5"/>
       <c r="N533" s="5"/>
       <c r="O533" s="5"/>
@@ -5382,6 +7239,7 @@
     </row>
     <row r="534" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D534" s="6"/>
+      <c r="L534" s="22"/>
       <c r="M534" s="5"/>
       <c r="N534" s="5"/>
       <c r="O534" s="5"/>
@@ -5391,6 +7249,7 @@
     </row>
     <row r="535" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D535" s="6"/>
+      <c r="L535" s="22"/>
       <c r="M535" s="5"/>
       <c r="N535" s="5"/>
       <c r="O535" s="5"/>
@@ -5400,6 +7259,7 @@
     </row>
     <row r="536" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D536" s="6"/>
+      <c r="L536" s="22"/>
       <c r="M536" s="5"/>
       <c r="N536" s="5"/>
       <c r="O536" s="5"/>
@@ -5409,6 +7269,7 @@
     </row>
     <row r="537" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D537" s="6"/>
+      <c r="L537" s="22"/>
       <c r="M537" s="5"/>
       <c r="N537" s="5"/>
       <c r="O537" s="5"/>
@@ -5418,6 +7279,7 @@
     </row>
     <row r="538" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D538" s="6"/>
+      <c r="L538" s="22"/>
       <c r="M538" s="5"/>
       <c r="N538" s="5"/>
       <c r="O538" s="5"/>
@@ -5427,6 +7289,7 @@
     </row>
     <row r="539" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D539" s="6"/>
+      <c r="L539" s="22"/>
       <c r="M539" s="5"/>
       <c r="N539" s="5"/>
       <c r="O539" s="5"/>
@@ -5436,6 +7299,7 @@
     </row>
     <row r="540" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D540" s="6"/>
+      <c r="L540" s="22"/>
       <c r="M540" s="5"/>
       <c r="N540" s="5"/>
       <c r="O540" s="5"/>
@@ -5445,6 +7309,7 @@
     </row>
     <row r="541" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D541" s="6"/>
+      <c r="L541" s="22"/>
       <c r="M541" s="5"/>
       <c r="N541" s="5"/>
       <c r="O541" s="5"/>
@@ -5454,6 +7319,7 @@
     </row>
     <row r="542" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D542" s="6"/>
+      <c r="L542" s="22"/>
       <c r="M542" s="5"/>
       <c r="N542" s="5"/>
       <c r="O542" s="5"/>
@@ -5463,6 +7329,7 @@
     </row>
     <row r="543" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D543" s="6"/>
+      <c r="L543" s="22"/>
       <c r="M543" s="5"/>
       <c r="N543" s="5"/>
       <c r="O543" s="5"/>
@@ -5472,6 +7339,7 @@
     </row>
     <row r="544" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D544" s="6"/>
+      <c r="L544" s="22"/>
       <c r="M544" s="5"/>
       <c r="N544" s="5"/>
       <c r="O544" s="5"/>
@@ -5481,6 +7349,7 @@
     </row>
     <row r="545" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D545" s="6"/>
+      <c r="L545" s="22"/>
       <c r="M545" s="5"/>
       <c r="N545" s="5"/>
       <c r="O545" s="5"/>
@@ -5490,6 +7359,7 @@
     </row>
     <row r="546" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D546" s="6"/>
+      <c r="L546" s="22"/>
       <c r="M546" s="5"/>
       <c r="N546" s="5"/>
       <c r="O546" s="5"/>
@@ -5499,6 +7369,7 @@
     </row>
     <row r="547" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D547" s="6"/>
+      <c r="L547" s="22"/>
       <c r="M547" s="5"/>
       <c r="N547" s="5"/>
       <c r="O547" s="5"/>
@@ -5508,6 +7379,7 @@
     </row>
     <row r="548" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D548" s="6"/>
+      <c r="L548" s="22"/>
       <c r="M548" s="5"/>
       <c r="N548" s="5"/>
       <c r="O548" s="5"/>
@@ -5517,6 +7389,7 @@
     </row>
     <row r="549" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D549" s="6"/>
+      <c r="L549" s="22"/>
       <c r="M549" s="5"/>
       <c r="N549" s="5"/>
       <c r="O549" s="5"/>
@@ -5526,6 +7399,7 @@
     </row>
     <row r="550" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D550" s="6"/>
+      <c r="L550" s="22"/>
       <c r="M550" s="5"/>
       <c r="N550" s="5"/>
       <c r="O550" s="5"/>
@@ -5535,6 +7409,7 @@
     </row>
     <row r="551" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D551" s="6"/>
+      <c r="L551" s="22"/>
       <c r="M551" s="5"/>
       <c r="N551" s="5"/>
       <c r="O551" s="5"/>
@@ -5544,6 +7419,7 @@
     </row>
     <row r="552" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D552" s="6"/>
+      <c r="L552" s="22"/>
       <c r="M552" s="5"/>
       <c r="N552" s="5"/>
       <c r="O552" s="5"/>
@@ -5553,6 +7429,7 @@
     </row>
     <row r="553" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D553" s="6"/>
+      <c r="L553" s="22"/>
       <c r="M553" s="5"/>
       <c r="N553" s="5"/>
       <c r="O553" s="5"/>
@@ -5562,6 +7439,7 @@
     </row>
     <row r="554" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D554" s="6"/>
+      <c r="L554" s="22"/>
       <c r="M554" s="5"/>
       <c r="N554" s="5"/>
       <c r="O554" s="5"/>
@@ -5571,6 +7449,7 @@
     </row>
     <row r="555" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D555" s="6"/>
+      <c r="L555" s="22"/>
       <c r="M555" s="5"/>
       <c r="N555" s="5"/>
       <c r="O555" s="5"/>
@@ -5580,6 +7459,7 @@
     </row>
     <row r="556" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D556" s="6"/>
+      <c r="L556" s="22"/>
       <c r="M556" s="5"/>
       <c r="N556" s="5"/>
       <c r="O556" s="5"/>
@@ -5589,6 +7469,7 @@
     </row>
     <row r="557" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D557" s="6"/>
+      <c r="L557" s="22"/>
       <c r="M557" s="5"/>
       <c r="N557" s="5"/>
       <c r="O557" s="5"/>
@@ -5598,6 +7479,7 @@
     </row>
     <row r="558" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D558" s="6"/>
+      <c r="L558" s="22"/>
       <c r="M558" s="5"/>
       <c r="N558" s="5"/>
       <c r="O558" s="5"/>
@@ -5607,6 +7489,7 @@
     </row>
     <row r="559" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D559" s="6"/>
+      <c r="L559" s="22"/>
       <c r="M559" s="5"/>
       <c r="N559" s="5"/>
       <c r="O559" s="5"/>
@@ -5616,6 +7499,7 @@
     </row>
     <row r="560" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D560" s="6"/>
+      <c r="L560" s="22"/>
       <c r="M560" s="5"/>
       <c r="N560" s="5"/>
       <c r="O560" s="5"/>
@@ -5625,6 +7509,7 @@
     </row>
     <row r="561" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D561" s="6"/>
+      <c r="L561" s="22"/>
       <c r="M561" s="5"/>
       <c r="N561" s="5"/>
       <c r="O561" s="5"/>
@@ -5634,6 +7519,7 @@
     </row>
     <row r="562" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D562" s="6"/>
+      <c r="L562" s="22"/>
       <c r="M562" s="5"/>
       <c r="N562" s="5"/>
       <c r="O562" s="5"/>
@@ -5643,6 +7529,7 @@
     </row>
     <row r="563" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D563" s="6"/>
+      <c r="L563" s="22"/>
       <c r="M563" s="5"/>
       <c r="N563" s="5"/>
       <c r="O563" s="5"/>
@@ -5652,6 +7539,7 @@
     </row>
     <row r="564" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D564" s="6"/>
+      <c r="L564" s="22"/>
       <c r="M564" s="5"/>
       <c r="N564" s="5"/>
       <c r="O564" s="5"/>
@@ -5661,6 +7549,7 @@
     </row>
     <row r="565" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D565" s="6"/>
+      <c r="L565" s="22"/>
       <c r="M565" s="5"/>
       <c r="N565" s="5"/>
       <c r="O565" s="5"/>
@@ -5670,6 +7559,7 @@
     </row>
     <row r="566" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D566" s="6"/>
+      <c r="L566" s="22"/>
       <c r="M566" s="5"/>
       <c r="N566" s="5"/>
       <c r="O566" s="5"/>
@@ -5679,6 +7569,7 @@
     </row>
     <row r="567" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D567" s="6"/>
+      <c r="L567" s="22"/>
       <c r="M567" s="5"/>
       <c r="N567" s="5"/>
       <c r="O567" s="5"/>
@@ -5688,6 +7579,7 @@
     </row>
     <row r="568" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D568" s="6"/>
+      <c r="L568" s="22"/>
       <c r="M568" s="5"/>
       <c r="N568" s="5"/>
       <c r="O568" s="5"/>
@@ -5697,6 +7589,7 @@
     </row>
     <row r="569" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D569" s="6"/>
+      <c r="L569" s="22"/>
       <c r="M569" s="5"/>
       <c r="N569" s="5"/>
       <c r="O569" s="5"/>
@@ -5706,6 +7599,7 @@
     </row>
     <row r="570" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D570" s="6"/>
+      <c r="L570" s="22"/>
       <c r="M570" s="5"/>
       <c r="N570" s="5"/>
       <c r="O570" s="5"/>
@@ -5715,6 +7609,7 @@
     </row>
     <row r="571" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D571" s="6"/>
+      <c r="L571" s="22"/>
       <c r="M571" s="5"/>
       <c r="N571" s="5"/>
       <c r="O571" s="5"/>
@@ -5724,6 +7619,7 @@
     </row>
     <row r="572" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D572" s="6"/>
+      <c r="L572" s="22"/>
       <c r="M572" s="5"/>
       <c r="N572" s="5"/>
       <c r="O572" s="5"/>
@@ -5733,6 +7629,7 @@
     </row>
     <row r="573" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D573" s="6"/>
+      <c r="L573" s="22"/>
       <c r="M573" s="5"/>
       <c r="N573" s="5"/>
       <c r="O573" s="5"/>
@@ -5742,6 +7639,7 @@
     </row>
     <row r="574" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D574" s="6"/>
+      <c r="L574" s="22"/>
       <c r="M574" s="5"/>
       <c r="N574" s="5"/>
       <c r="O574" s="5"/>
@@ -5751,6 +7649,7 @@
     </row>
     <row r="575" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D575" s="6"/>
+      <c r="L575" s="22"/>
       <c r="M575" s="5"/>
       <c r="N575" s="5"/>
       <c r="O575" s="5"/>
@@ -5760,6 +7659,7 @@
     </row>
     <row r="576" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D576" s="6"/>
+      <c r="L576" s="22"/>
       <c r="M576" s="5"/>
       <c r="N576" s="5"/>
       <c r="O576" s="5"/>
@@ -5769,6 +7669,7 @@
     </row>
     <row r="577" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D577" s="6"/>
+      <c r="L577" s="22"/>
       <c r="M577" s="5"/>
       <c r="N577" s="5"/>
       <c r="O577" s="5"/>
@@ -5778,6 +7679,7 @@
     </row>
     <row r="578" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D578" s="6"/>
+      <c r="L578" s="22"/>
       <c r="M578" s="5"/>
       <c r="N578" s="5"/>
       <c r="O578" s="5"/>
@@ -5787,6 +7689,7 @@
     </row>
     <row r="579" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D579" s="6"/>
+      <c r="L579" s="22"/>
       <c r="M579" s="5"/>
       <c r="N579" s="5"/>
       <c r="O579" s="5"/>
@@ -5796,6 +7699,7 @@
     </row>
     <row r="580" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D580" s="6"/>
+      <c r="L580" s="22"/>
       <c r="M580" s="5"/>
       <c r="N580" s="5"/>
       <c r="O580" s="5"/>
@@ -5805,6 +7709,7 @@
     </row>
     <row r="581" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D581" s="6"/>
+      <c r="L581" s="22"/>
       <c r="M581" s="5"/>
       <c r="N581" s="5"/>
       <c r="O581" s="5"/>
@@ -5814,6 +7719,7 @@
     </row>
     <row r="582" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D582" s="6"/>
+      <c r="L582" s="22"/>
       <c r="M582" s="5"/>
       <c r="N582" s="5"/>
       <c r="O582" s="5"/>
@@ -5823,6 +7729,7 @@
     </row>
     <row r="583" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D583" s="6"/>
+      <c r="L583" s="22"/>
       <c r="M583" s="5"/>
       <c r="N583" s="5"/>
       <c r="O583" s="5"/>
@@ -5832,6 +7739,7 @@
     </row>
     <row r="584" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D584" s="6"/>
+      <c r="L584" s="22"/>
       <c r="M584" s="5"/>
       <c r="N584" s="5"/>
       <c r="O584" s="5"/>
@@ -5841,6 +7749,7 @@
     </row>
     <row r="585" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D585" s="6"/>
+      <c r="L585" s="22"/>
       <c r="M585" s="5"/>
       <c r="N585" s="5"/>
       <c r="O585" s="5"/>
@@ -5850,6 +7759,7 @@
     </row>
     <row r="586" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D586" s="6"/>
+      <c r="L586" s="22"/>
       <c r="M586" s="5"/>
       <c r="N586" s="5"/>
       <c r="O586" s="5"/>
@@ -5859,6 +7769,7 @@
     </row>
     <row r="587" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D587" s="6"/>
+      <c r="L587" s="22"/>
       <c r="M587" s="5"/>
       <c r="N587" s="5"/>
       <c r="O587" s="5"/>
@@ -5868,6 +7779,7 @@
     </row>
     <row r="588" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D588" s="6"/>
+      <c r="L588" s="22"/>
       <c r="M588" s="5"/>
       <c r="N588" s="5"/>
       <c r="O588" s="5"/>
@@ -5877,6 +7789,7 @@
     </row>
     <row r="589" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D589" s="6"/>
+      <c r="L589" s="22"/>
       <c r="M589" s="5"/>
       <c r="N589" s="5"/>
       <c r="O589" s="5"/>
@@ -5886,6 +7799,7 @@
     </row>
     <row r="590" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D590" s="6"/>
+      <c r="L590" s="22"/>
       <c r="M590" s="5"/>
       <c r="N590" s="5"/>
       <c r="O590" s="5"/>
@@ -5895,6 +7809,7 @@
     </row>
     <row r="591" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D591" s="6"/>
+      <c r="L591" s="22"/>
       <c r="M591" s="5"/>
       <c r="N591" s="5"/>
       <c r="O591" s="5"/>
@@ -5904,6 +7819,7 @@
     </row>
     <row r="592" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D592" s="6"/>
+      <c r="L592" s="22"/>
       <c r="M592" s="5"/>
       <c r="N592" s="5"/>
       <c r="O592" s="5"/>
@@ -5913,6 +7829,7 @@
     </row>
     <row r="593" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D593" s="6"/>
+      <c r="L593" s="22"/>
       <c r="M593" s="5"/>
       <c r="N593" s="5"/>
       <c r="O593" s="5"/>
@@ -5922,6 +7839,7 @@
     </row>
     <row r="594" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D594" s="6"/>
+      <c r="L594" s="22"/>
       <c r="M594" s="5"/>
       <c r="N594" s="5"/>
       <c r="O594" s="5"/>
@@ -5931,6 +7849,7 @@
     </row>
     <row r="595" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D595" s="6"/>
+      <c r="L595" s="22"/>
       <c r="M595" s="5"/>
       <c r="N595" s="5"/>
       <c r="O595" s="5"/>
@@ -5940,6 +7859,7 @@
     </row>
     <row r="596" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D596" s="6"/>
+      <c r="L596" s="22"/>
       <c r="M596" s="5"/>
       <c r="N596" s="5"/>
       <c r="O596" s="5"/>
@@ -5949,6 +7869,7 @@
     </row>
     <row r="597" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D597" s="6"/>
+      <c r="L597" s="22"/>
       <c r="M597" s="5"/>
       <c r="N597" s="5"/>
       <c r="O597" s="5"/>
@@ -5958,6 +7879,7 @@
     </row>
     <row r="598" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D598" s="6"/>
+      <c r="L598" s="22"/>
       <c r="M598" s="5"/>
       <c r="N598" s="5"/>
       <c r="O598" s="5"/>
@@ -5967,6 +7889,7 @@
     </row>
     <row r="599" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D599" s="6"/>
+      <c r="L599" s="22"/>
       <c r="M599" s="5"/>
       <c r="N599" s="5"/>
       <c r="O599" s="5"/>
@@ -5976,6 +7899,7 @@
     </row>
     <row r="600" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D600" s="6"/>
+      <c r="L600" s="22"/>
       <c r="M600" s="5"/>
       <c r="N600" s="5"/>
       <c r="O600" s="5"/>
@@ -5985,6 +7909,7 @@
     </row>
     <row r="601" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D601" s="6"/>
+      <c r="L601" s="22"/>
       <c r="M601" s="5"/>
       <c r="N601" s="5"/>
       <c r="O601" s="5"/>
@@ -5994,6 +7919,7 @@
     </row>
     <row r="602" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D602" s="6"/>
+      <c r="L602" s="22"/>
       <c r="M602" s="5"/>
       <c r="N602" s="5"/>
       <c r="O602" s="5"/>
@@ -6003,6 +7929,7 @@
     </row>
     <row r="603" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D603" s="6"/>
+      <c r="L603" s="22"/>
       <c r="M603" s="5"/>
       <c r="N603" s="5"/>
       <c r="O603" s="5"/>
@@ -6012,6 +7939,7 @@
     </row>
     <row r="604" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D604" s="6"/>
+      <c r="L604" s="22"/>
       <c r="M604" s="5"/>
       <c r="N604" s="5"/>
       <c r="O604" s="5"/>
@@ -6021,6 +7949,7 @@
     </row>
     <row r="605" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D605" s="6"/>
+      <c r="L605" s="22"/>
       <c r="M605" s="5"/>
       <c r="N605" s="5"/>
       <c r="O605" s="5"/>
@@ -6030,6 +7959,7 @@
     </row>
     <row r="606" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D606" s="6"/>
+      <c r="L606" s="22"/>
       <c r="M606" s="5"/>
       <c r="N606" s="5"/>
       <c r="O606" s="5"/>
@@ -6039,6 +7969,7 @@
     </row>
     <row r="607" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D607" s="6"/>
+      <c r="L607" s="22"/>
       <c r="M607" s="5"/>
       <c r="N607" s="5"/>
       <c r="O607" s="5"/>
@@ -6048,6 +7979,7 @@
     </row>
     <row r="608" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D608" s="6"/>
+      <c r="L608" s="22"/>
       <c r="M608" s="5"/>
       <c r="N608" s="5"/>
       <c r="O608" s="5"/>
@@ -6057,6 +7989,7 @@
     </row>
     <row r="609" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D609" s="6"/>
+      <c r="L609" s="22"/>
       <c r="M609" s="5"/>
       <c r="N609" s="5"/>
       <c r="O609" s="5"/>
@@ -6066,6 +7999,7 @@
     </row>
     <row r="610" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D610" s="6"/>
+      <c r="L610" s="22"/>
       <c r="M610" s="5"/>
       <c r="N610" s="5"/>
       <c r="O610" s="5"/>
@@ -6075,6 +8009,7 @@
     </row>
     <row r="611" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D611" s="6"/>
+      <c r="L611" s="22"/>
       <c r="M611" s="5"/>
       <c r="N611" s="5"/>
       <c r="O611" s="5"/>
@@ -6084,6 +8019,7 @@
     </row>
     <row r="612" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D612" s="6"/>
+      <c r="L612" s="22"/>
       <c r="M612" s="5"/>
       <c r="N612" s="5"/>
       <c r="O612" s="5"/>
@@ -6093,6 +8029,7 @@
     </row>
     <row r="613" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D613" s="6"/>
+      <c r="L613" s="22"/>
       <c r="M613" s="5"/>
       <c r="N613" s="5"/>
       <c r="O613" s="5"/>
@@ -6102,6 +8039,7 @@
     </row>
     <row r="614" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D614" s="6"/>
+      <c r="L614" s="22"/>
       <c r="M614" s="5"/>
       <c r="N614" s="5"/>
       <c r="O614" s="5"/>
@@ -6111,6 +8049,7 @@
     </row>
     <row r="615" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D615" s="6"/>
+      <c r="L615" s="22"/>
       <c r="M615" s="5"/>
       <c r="N615" s="5"/>
       <c r="O615" s="5"/>
@@ -6120,6 +8059,7 @@
     </row>
     <row r="616" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D616" s="6"/>
+      <c r="L616" s="22"/>
       <c r="M616" s="5"/>
       <c r="N616" s="5"/>
       <c r="O616" s="5"/>
@@ -6129,6 +8069,7 @@
     </row>
     <row r="617" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D617" s="6"/>
+      <c r="L617" s="22"/>
       <c r="M617" s="5"/>
       <c r="N617" s="5"/>
       <c r="O617" s="5"/>
@@ -6138,6 +8079,7 @@
     </row>
     <row r="618" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D618" s="6"/>
+      <c r="L618" s="22"/>
       <c r="M618" s="5"/>
       <c r="N618" s="5"/>
       <c r="O618" s="5"/>
@@ -6147,6 +8089,7 @@
     </row>
     <row r="619" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D619" s="6"/>
+      <c r="L619" s="22"/>
       <c r="M619" s="5"/>
       <c r="N619" s="5"/>
       <c r="O619" s="5"/>
@@ -6156,6 +8099,7 @@
     </row>
     <row r="620" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D620" s="6"/>
+      <c r="L620" s="22"/>
       <c r="M620" s="5"/>
       <c r="N620" s="5"/>
       <c r="O620" s="5"/>
@@ -6165,6 +8109,7 @@
     </row>
     <row r="621" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D621" s="6"/>
+      <c r="L621" s="22"/>
       <c r="M621" s="5"/>
       <c r="N621" s="5"/>
       <c r="O621" s="5"/>
@@ -6174,6 +8119,7 @@
     </row>
     <row r="622" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D622" s="6"/>
+      <c r="L622" s="22"/>
       <c r="M622" s="5"/>
       <c r="N622" s="5"/>
       <c r="O622" s="5"/>
@@ -6183,6 +8129,7 @@
     </row>
     <row r="623" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D623" s="6"/>
+      <c r="L623" s="22"/>
       <c r="M623" s="5"/>
       <c r="N623" s="5"/>
       <c r="O623" s="5"/>
@@ -6192,6 +8139,7 @@
     </row>
     <row r="624" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D624" s="6"/>
+      <c r="L624" s="22"/>
       <c r="M624" s="5"/>
       <c r="N624" s="5"/>
       <c r="O624" s="5"/>
@@ -6201,6 +8149,7 @@
     </row>
     <row r="625" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D625" s="6"/>
+      <c r="L625" s="22"/>
       <c r="M625" s="5"/>
       <c r="N625" s="5"/>
       <c r="O625" s="5"/>
@@ -6210,6 +8159,7 @@
     </row>
     <row r="626" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D626" s="6"/>
+      <c r="L626" s="22"/>
       <c r="M626" s="5"/>
       <c r="N626" s="5"/>
       <c r="O626" s="5"/>
@@ -6219,6 +8169,7 @@
     </row>
     <row r="627" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D627" s="6"/>
+      <c r="L627" s="22"/>
       <c r="M627" s="5"/>
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
@@ -6228,6 +8179,7 @@
     </row>
     <row r="628" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D628" s="6"/>
+      <c r="L628" s="22"/>
       <c r="M628" s="5"/>
       <c r="N628" s="5"/>
       <c r="O628" s="5"/>
@@ -6237,6 +8189,7 @@
     </row>
     <row r="629" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D629" s="6"/>
+      <c r="L629" s="22"/>
       <c r="M629" s="5"/>
       <c r="N629" s="5"/>
       <c r="O629" s="5"/>
@@ -6246,6 +8199,7 @@
     </row>
     <row r="630" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D630" s="6"/>
+      <c r="L630" s="22"/>
       <c r="M630" s="5"/>
       <c r="N630" s="5"/>
       <c r="O630" s="5"/>
@@ -6255,6 +8209,7 @@
     </row>
     <row r="631" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D631" s="6"/>
+      <c r="L631" s="22"/>
       <c r="M631" s="5"/>
       <c r="N631" s="5"/>
       <c r="O631" s="5"/>
@@ -6264,6 +8219,7 @@
     </row>
     <row r="632" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D632" s="6"/>
+      <c r="L632" s="22"/>
       <c r="M632" s="5"/>
       <c r="N632" s="5"/>
       <c r="O632" s="5"/>
@@ -6273,6 +8229,7 @@
     </row>
     <row r="633" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D633" s="6"/>
+      <c r="L633" s="22"/>
       <c r="M633" s="5"/>
       <c r="N633" s="5"/>
       <c r="O633" s="5"/>
@@ -6282,6 +8239,7 @@
     </row>
     <row r="634" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D634" s="6"/>
+      <c r="L634" s="22"/>
       <c r="M634" s="5"/>
       <c r="N634" s="5"/>
       <c r="O634" s="5"/>
@@ -6291,6 +8249,7 @@
     </row>
     <row r="635" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D635" s="6"/>
+      <c r="L635" s="22"/>
       <c r="M635" s="5"/>
       <c r="N635" s="5"/>
       <c r="O635" s="5"/>
@@ -6300,6 +8259,7 @@
     </row>
     <row r="636" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D636" s="6"/>
+      <c r="L636" s="22"/>
       <c r="M636" s="5"/>
       <c r="N636" s="5"/>
       <c r="O636" s="5"/>
@@ -6309,6 +8269,7 @@
     </row>
     <row r="637" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D637" s="6"/>
+      <c r="L637" s="22"/>
       <c r="M637" s="5"/>
       <c r="N637" s="5"/>
       <c r="O637" s="5"/>
@@ -6318,6 +8279,7 @@
     </row>
     <row r="638" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D638" s="6"/>
+      <c r="L638" s="22"/>
       <c r="M638" s="5"/>
       <c r="N638" s="5"/>
       <c r="O638" s="5"/>
@@ -6327,6 +8289,7 @@
     </row>
     <row r="639" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D639" s="6"/>
+      <c r="L639" s="22"/>
       <c r="M639" s="5"/>
       <c r="N639" s="5"/>
       <c r="O639" s="5"/>
@@ -6336,6 +8299,7 @@
     </row>
     <row r="640" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D640" s="6"/>
+      <c r="L640" s="22"/>
       <c r="M640" s="5"/>
       <c r="N640" s="5"/>
       <c r="O640" s="5"/>
@@ -6345,6 +8309,7 @@
     </row>
     <row r="641" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D641" s="6"/>
+      <c r="L641" s="22"/>
       <c r="M641" s="5"/>
       <c r="N641" s="5"/>
       <c r="O641" s="5"/>
@@ -6354,6 +8319,7 @@
     </row>
     <row r="642" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D642" s="6"/>
+      <c r="L642" s="22"/>
       <c r="M642" s="5"/>
       <c r="N642" s="5"/>
       <c r="O642" s="5"/>
@@ -6363,6 +8329,7 @@
     </row>
     <row r="643" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D643" s="6"/>
+      <c r="L643" s="22"/>
       <c r="M643" s="5"/>
       <c r="N643" s="5"/>
       <c r="O643" s="5"/>
@@ -6372,6 +8339,7 @@
     </row>
     <row r="644" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D644" s="6"/>
+      <c r="L644" s="22"/>
       <c r="M644" s="5"/>
       <c r="N644" s="5"/>
       <c r="O644" s="5"/>
@@ -6381,6 +8349,7 @@
     </row>
     <row r="645" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D645" s="6"/>
+      <c r="L645" s="22"/>
       <c r="M645" s="5"/>
       <c r="N645" s="5"/>
       <c r="O645" s="5"/>
@@ -6390,6 +8359,7 @@
     </row>
     <row r="646" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D646" s="6"/>
+      <c r="L646" s="22"/>
       <c r="M646" s="5"/>
       <c r="N646" s="5"/>
       <c r="O646" s="5"/>
@@ -6399,6 +8369,7 @@
     </row>
     <row r="647" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D647" s="6"/>
+      <c r="L647" s="22"/>
       <c r="M647" s="5"/>
       <c r="N647" s="5"/>
       <c r="O647" s="5"/>
@@ -6408,6 +8379,7 @@
     </row>
     <row r="648" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D648" s="6"/>
+      <c r="L648" s="22"/>
       <c r="M648" s="5"/>
       <c r="N648" s="5"/>
       <c r="O648" s="5"/>
@@ -6417,6 +8389,7 @@
     </row>
     <row r="649" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D649" s="6"/>
+      <c r="L649" s="22"/>
       <c r="M649" s="5"/>
       <c r="N649" s="5"/>
       <c r="O649" s="5"/>
@@ -6426,6 +8399,7 @@
     </row>
     <row r="650" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D650" s="6"/>
+      <c r="L650" s="22"/>
       <c r="M650" s="5"/>
       <c r="N650" s="5"/>
       <c r="O650" s="5"/>
@@ -6435,6 +8409,7 @@
     </row>
     <row r="651" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D651" s="6"/>
+      <c r="L651" s="22"/>
       <c r="M651" s="5"/>
       <c r="N651" s="5"/>
       <c r="O651" s="5"/>
@@ -6444,6 +8419,7 @@
     </row>
     <row r="652" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D652" s="6"/>
+      <c r="L652" s="22"/>
       <c r="M652" s="5"/>
       <c r="N652" s="5"/>
       <c r="O652" s="5"/>
@@ -6453,6 +8429,7 @@
     </row>
     <row r="653" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D653" s="6"/>
+      <c r="L653" s="22"/>
       <c r="M653" s="5"/>
       <c r="N653" s="5"/>
       <c r="O653" s="5"/>
@@ -6462,6 +8439,7 @@
     </row>
     <row r="654" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D654" s="6"/>
+      <c r="L654" s="22"/>
       <c r="M654" s="5"/>
       <c r="N654" s="5"/>
       <c r="O654" s="5"/>
@@ -6471,6 +8449,7 @@
     </row>
     <row r="655" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D655" s="6"/>
+      <c r="L655" s="22"/>
       <c r="M655" s="5"/>
       <c r="N655" s="5"/>
       <c r="O655" s="5"/>
@@ -6480,6 +8459,7 @@
     </row>
     <row r="656" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D656" s="6"/>
+      <c r="L656" s="22"/>
       <c r="M656" s="5"/>
       <c r="N656" s="5"/>
       <c r="O656" s="5"/>
@@ -6489,6 +8469,7 @@
     </row>
     <row r="657" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D657" s="6"/>
+      <c r="L657" s="22"/>
       <c r="M657" s="5"/>
       <c r="N657" s="5"/>
       <c r="O657" s="5"/>
@@ -6498,6 +8479,7 @@
     </row>
     <row r="658" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D658" s="6"/>
+      <c r="L658" s="22"/>
       <c r="M658" s="5"/>
       <c r="N658" s="5"/>
       <c r="O658" s="5"/>
@@ -6507,6 +8489,7 @@
     </row>
     <row r="659" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D659" s="6"/>
+      <c r="L659" s="22"/>
       <c r="M659" s="5"/>
       <c r="N659" s="5"/>
       <c r="O659" s="5"/>
@@ -6516,6 +8499,7 @@
     </row>
     <row r="660" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D660" s="6"/>
+      <c r="L660" s="22"/>
       <c r="M660" s="5"/>
       <c r="N660" s="5"/>
       <c r="O660" s="5"/>
@@ -6525,6 +8509,7 @@
     </row>
     <row r="661" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D661" s="6"/>
+      <c r="L661" s="22"/>
       <c r="M661" s="5"/>
       <c r="N661" s="5"/>
       <c r="O661" s="5"/>
@@ -6534,6 +8519,7 @@
     </row>
     <row r="662" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D662" s="6"/>
+      <c r="L662" s="22"/>
       <c r="M662" s="5"/>
       <c r="N662" s="5"/>
       <c r="O662" s="5"/>
@@ -6543,6 +8529,7 @@
     </row>
     <row r="663" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D663" s="6"/>
+      <c r="L663" s="22"/>
       <c r="M663" s="5"/>
       <c r="N663" s="5"/>
       <c r="O663" s="5"/>
@@ -6552,6 +8539,7 @@
     </row>
     <row r="664" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D664" s="6"/>
+      <c r="L664" s="22"/>
       <c r="M664" s="5"/>
       <c r="N664" s="5"/>
       <c r="O664" s="5"/>
@@ -6561,6 +8549,7 @@
     </row>
     <row r="665" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D665" s="6"/>
+      <c r="L665" s="22"/>
       <c r="M665" s="5"/>
       <c r="N665" s="5"/>
       <c r="O665" s="5"/>
@@ -6570,6 +8559,7 @@
     </row>
     <row r="666" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D666" s="6"/>
+      <c r="L666" s="22"/>
       <c r="M666" s="5"/>
       <c r="N666" s="5"/>
       <c r="O666" s="5"/>
@@ -6579,6 +8569,7 @@
     </row>
     <row r="667" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D667" s="6"/>
+      <c r="L667" s="22"/>
       <c r="M667" s="5"/>
       <c r="N667" s="5"/>
       <c r="O667" s="5"/>
@@ -6588,6 +8579,7 @@
     </row>
     <row r="668" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D668" s="6"/>
+      <c r="L668" s="22"/>
       <c r="M668" s="5"/>
       <c r="N668" s="5"/>
       <c r="O668" s="5"/>
@@ -6597,6 +8589,7 @@
     </row>
     <row r="669" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D669" s="6"/>
+      <c r="L669" s="22"/>
       <c r="M669" s="5"/>
       <c r="N669" s="5"/>
       <c r="O669" s="5"/>
@@ -6606,6 +8599,7 @@
     </row>
     <row r="670" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D670" s="6"/>
+      <c r="L670" s="22"/>
       <c r="M670" s="5"/>
       <c r="N670" s="5"/>
       <c r="O670" s="5"/>
@@ -6615,6 +8609,7 @@
     </row>
     <row r="671" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D671" s="6"/>
+      <c r="L671" s="22"/>
       <c r="M671" s="5"/>
       <c r="N671" s="5"/>
       <c r="O671" s="5"/>
@@ -6624,6 +8619,7 @@
     </row>
     <row r="672" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D672" s="6"/>
+      <c r="L672" s="22"/>
       <c r="M672" s="5"/>
       <c r="N672" s="5"/>
       <c r="O672" s="5"/>
@@ -6633,6 +8629,7 @@
     </row>
     <row r="673" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D673" s="6"/>
+      <c r="L673" s="22"/>
       <c r="M673" s="5"/>
       <c r="N673" s="5"/>
       <c r="O673" s="5"/>
@@ -6642,6 +8639,7 @@
     </row>
     <row r="674" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D674" s="6"/>
+      <c r="L674" s="22"/>
       <c r="M674" s="5"/>
       <c r="N674" s="5"/>
       <c r="O674" s="5"/>
@@ -6651,6 +8649,7 @@
     </row>
     <row r="675" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D675" s="6"/>
+      <c r="L675" s="22"/>
       <c r="M675" s="5"/>
       <c r="N675" s="5"/>
       <c r="O675" s="5"/>
@@ -6660,6 +8659,7 @@
     </row>
     <row r="676" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D676" s="6"/>
+      <c r="L676" s="22"/>
       <c r="M676" s="5"/>
       <c r="N676" s="5"/>
       <c r="O676" s="5"/>
@@ -6669,6 +8669,7 @@
     </row>
     <row r="677" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D677" s="6"/>
+      <c r="L677" s="22"/>
       <c r="M677" s="5"/>
       <c r="N677" s="5"/>
       <c r="O677" s="5"/>
@@ -6678,6 +8679,7 @@
     </row>
     <row r="678" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D678" s="6"/>
+      <c r="L678" s="22"/>
       <c r="M678" s="5"/>
       <c r="N678" s="5"/>
       <c r="O678" s="5"/>
@@ -6687,6 +8689,7 @@
     </row>
     <row r="679" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D679" s="6"/>
+      <c r="L679" s="22"/>
       <c r="M679" s="5"/>
       <c r="N679" s="5"/>
       <c r="O679" s="5"/>
@@ -6696,6 +8699,7 @@
     </row>
     <row r="680" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D680" s="6"/>
+      <c r="L680" s="22"/>
       <c r="M680" s="5"/>
       <c r="N680" s="5"/>
       <c r="O680" s="5"/>
@@ -6705,6 +8709,7 @@
     </row>
     <row r="681" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D681" s="6"/>
+      <c r="L681" s="22"/>
       <c r="M681" s="5"/>
       <c r="N681" s="5"/>
       <c r="O681" s="5"/>
@@ -6714,6 +8719,7 @@
     </row>
     <row r="682" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D682" s="6"/>
+      <c r="L682" s="22"/>
       <c r="M682" s="5"/>
       <c r="N682" s="5"/>
       <c r="O682" s="5"/>
@@ -6723,6 +8729,7 @@
     </row>
     <row r="683" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D683" s="6"/>
+      <c r="L683" s="22"/>
       <c r="M683" s="5"/>
       <c r="N683" s="5"/>
       <c r="O683" s="5"/>
@@ -6732,6 +8739,7 @@
     </row>
     <row r="684" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D684" s="6"/>
+      <c r="L684" s="22"/>
       <c r="M684" s="5"/>
       <c r="N684" s="5"/>
       <c r="O684" s="5"/>
@@ -6741,6 +8749,7 @@
     </row>
     <row r="685" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D685" s="6"/>
+      <c r="L685" s="22"/>
       <c r="M685" s="5"/>
       <c r="N685" s="5"/>
       <c r="O685" s="5"/>
@@ -6750,6 +8759,7 @@
     </row>
     <row r="686" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D686" s="6"/>
+      <c r="L686" s="22"/>
       <c r="M686" s="5"/>
       <c r="N686" s="5"/>
       <c r="O686" s="5"/>
@@ -6759,6 +8769,7 @@
     </row>
     <row r="687" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D687" s="6"/>
+      <c r="L687" s="22"/>
       <c r="M687" s="5"/>
       <c r="N687" s="5"/>
       <c r="O687" s="5"/>
@@ -6768,6 +8779,7 @@
     </row>
     <row r="688" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D688" s="6"/>
+      <c r="L688" s="22"/>
       <c r="M688" s="5"/>
       <c r="N688" s="5"/>
       <c r="O688" s="5"/>
@@ -6777,6 +8789,7 @@
     </row>
     <row r="689" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D689" s="6"/>
+      <c r="L689" s="22"/>
       <c r="M689" s="5"/>
       <c r="N689" s="5"/>
       <c r="O689" s="5"/>
@@ -6786,6 +8799,7 @@
     </row>
     <row r="690" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D690" s="6"/>
+      <c r="L690" s="22"/>
       <c r="M690" s="5"/>
       <c r="N690" s="5"/>
       <c r="O690" s="5"/>
@@ -6795,6 +8809,7 @@
     </row>
     <row r="691" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D691" s="6"/>
+      <c r="L691" s="22"/>
       <c r="M691" s="5"/>
       <c r="N691" s="5"/>
       <c r="O691" s="5"/>
@@ -6804,6 +8819,7 @@
     </row>
     <row r="692" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D692" s="6"/>
+      <c r="L692" s="22"/>
       <c r="M692" s="5"/>
       <c r="N692" s="5"/>
       <c r="O692" s="5"/>
@@ -6813,6 +8829,7 @@
     </row>
     <row r="693" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D693" s="6"/>
+      <c r="L693" s="22"/>
       <c r="M693" s="5"/>
       <c r="N693" s="5"/>
       <c r="O693" s="5"/>
@@ -6822,6 +8839,7 @@
     </row>
     <row r="694" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D694" s="6"/>
+      <c r="L694" s="22"/>
       <c r="M694" s="5"/>
       <c r="N694" s="5"/>
       <c r="O694" s="5"/>
@@ -6831,6 +8849,7 @@
     </row>
     <row r="695" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D695" s="6"/>
+      <c r="L695" s="22"/>
       <c r="M695" s="5"/>
       <c r="N695" s="5"/>
       <c r="O695" s="5"/>
@@ -6840,6 +8859,7 @@
     </row>
     <row r="696" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D696" s="6"/>
+      <c r="L696" s="22"/>
       <c r="M696" s="5"/>
       <c r="N696" s="5"/>
       <c r="O696" s="5"/>
@@ -6849,6 +8869,7 @@
     </row>
     <row r="697" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D697" s="6"/>
+      <c r="L697" s="22"/>
       <c r="M697" s="5"/>
       <c r="N697" s="5"/>
       <c r="O697" s="5"/>
@@ -6858,6 +8879,7 @@
     </row>
     <row r="698" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D698" s="6"/>
+      <c r="L698" s="22"/>
       <c r="M698" s="5"/>
       <c r="N698" s="5"/>
       <c r="O698" s="5"/>
@@ -6867,6 +8889,7 @@
     </row>
     <row r="699" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D699" s="6"/>
+      <c r="L699" s="22"/>
       <c r="M699" s="5"/>
       <c r="N699" s="5"/>
       <c r="O699" s="5"/>
@@ -6876,6 +8899,7 @@
     </row>
     <row r="700" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D700" s="6"/>
+      <c r="L700" s="22"/>
       <c r="M700" s="5"/>
       <c r="N700" s="5"/>
       <c r="O700" s="5"/>
@@ -6885,6 +8909,7 @@
     </row>
     <row r="701" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D701" s="6"/>
+      <c r="L701" s="22"/>
       <c r="M701" s="5"/>
       <c r="N701" s="5"/>
       <c r="O701" s="5"/>
@@ -6894,6 +8919,7 @@
     </row>
     <row r="702" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D702" s="6"/>
+      <c r="L702" s="22"/>
       <c r="M702" s="5"/>
       <c r="N702" s="5"/>
       <c r="O702" s="5"/>
@@ -6903,6 +8929,7 @@
     </row>
     <row r="703" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D703" s="6"/>
+      <c r="L703" s="22"/>
       <c r="M703" s="5"/>
       <c r="N703" s="5"/>
       <c r="O703" s="5"/>
@@ -6912,6 +8939,7 @@
     </row>
     <row r="704" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D704" s="6"/>
+      <c r="L704" s="22"/>
       <c r="M704" s="5"/>
       <c r="N704" s="5"/>
       <c r="O704" s="5"/>
@@ -6921,6 +8949,7 @@
     </row>
     <row r="705" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D705" s="6"/>
+      <c r="L705" s="22"/>
       <c r="M705" s="5"/>
       <c r="N705" s="5"/>
       <c r="O705" s="5"/>
@@ -6930,6 +8959,7 @@
     </row>
     <row r="706" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D706" s="6"/>
+      <c r="L706" s="22"/>
       <c r="M706" s="5"/>
       <c r="N706" s="5"/>
       <c r="O706" s="5"/>
@@ -6939,6 +8969,7 @@
     </row>
     <row r="707" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D707" s="6"/>
+      <c r="L707" s="22"/>
       <c r="M707" s="5"/>
       <c r="N707" s="5"/>
       <c r="O707" s="5"/>
@@ -6948,6 +8979,7 @@
     </row>
     <row r="708" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D708" s="6"/>
+      <c r="L708" s="22"/>
       <c r="M708" s="5"/>
       <c r="N708" s="5"/>
       <c r="O708" s="5"/>
@@ -6957,6 +8989,7 @@
     </row>
     <row r="709" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D709" s="6"/>
+      <c r="L709" s="22"/>
       <c r="M709" s="5"/>
       <c r="N709" s="5"/>
       <c r="O709" s="5"/>
@@ -6966,6 +8999,7 @@
     </row>
     <row r="710" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D710" s="6"/>
+      <c r="L710" s="22"/>
       <c r="M710" s="5"/>
       <c r="N710" s="5"/>
       <c r="O710" s="5"/>
@@ -6975,6 +9009,7 @@
     </row>
     <row r="711" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D711" s="6"/>
+      <c r="L711" s="22"/>
       <c r="M711" s="5"/>
       <c r="N711" s="5"/>
       <c r="O711" s="5"/>
@@ -6984,6 +9019,7 @@
     </row>
     <row r="712" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D712" s="6"/>
+      <c r="L712" s="22"/>
       <c r="M712" s="5"/>
       <c r="N712" s="5"/>
       <c r="O712" s="5"/>
@@ -6993,6 +9029,7 @@
     </row>
     <row r="713" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D713" s="6"/>
+      <c r="L713" s="22"/>
       <c r="M713" s="5"/>
       <c r="N713" s="5"/>
       <c r="O713" s="5"/>
@@ -7002,6 +9039,7 @@
     </row>
     <row r="714" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D714" s="6"/>
+      <c r="L714" s="22"/>
       <c r="M714" s="5"/>
       <c r="N714" s="5"/>
       <c r="O714" s="5"/>
@@ -7011,6 +9049,7 @@
     </row>
     <row r="715" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D715" s="6"/>
+      <c r="L715" s="22"/>
       <c r="M715" s="5"/>
       <c r="N715" s="5"/>
       <c r="O715" s="5"/>
@@ -7020,6 +9059,7 @@
     </row>
     <row r="716" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D716" s="6"/>
+      <c r="L716" s="22"/>
       <c r="M716" s="5"/>
       <c r="N716" s="5"/>
       <c r="O716" s="5"/>
@@ -7029,6 +9069,7 @@
     </row>
     <row r="717" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D717" s="6"/>
+      <c r="L717" s="22"/>
       <c r="M717" s="5"/>
       <c r="N717" s="5"/>
       <c r="O717" s="5"/>
@@ -7038,6 +9079,7 @@
     </row>
     <row r="718" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D718" s="6"/>
+      <c r="L718" s="22"/>
       <c r="M718" s="5"/>
       <c r="N718" s="5"/>
       <c r="O718" s="5"/>
@@ -7047,6 +9089,7 @@
     </row>
     <row r="719" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D719" s="6"/>
+      <c r="L719" s="22"/>
       <c r="M719" s="5"/>
       <c r="N719" s="5"/>
       <c r="O719" s="5"/>
@@ -7056,6 +9099,7 @@
     </row>
     <row r="720" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D720" s="6"/>
+      <c r="L720" s="22"/>
       <c r="M720" s="5"/>
       <c r="N720" s="5"/>
       <c r="O720" s="5"/>
@@ -7065,6 +9109,7 @@
     </row>
     <row r="721" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D721" s="6"/>
+      <c r="L721" s="22"/>
       <c r="M721" s="5"/>
       <c r="N721" s="5"/>
       <c r="O721" s="5"/>
@@ -7074,6 +9119,7 @@
     </row>
     <row r="722" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D722" s="6"/>
+      <c r="L722" s="22"/>
       <c r="M722" s="5"/>
       <c r="N722" s="5"/>
       <c r="O722" s="5"/>
@@ -7083,6 +9129,7 @@
     </row>
     <row r="723" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D723" s="6"/>
+      <c r="L723" s="22"/>
       <c r="M723" s="5"/>
       <c r="N723" s="5"/>
       <c r="O723" s="5"/>
@@ -7092,6 +9139,7 @@
     </row>
     <row r="724" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D724" s="6"/>
+      <c r="L724" s="22"/>
       <c r="M724" s="5"/>
       <c r="N724" s="5"/>
       <c r="O724" s="5"/>
@@ -7101,6 +9149,7 @@
     </row>
     <row r="725" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D725" s="6"/>
+      <c r="L725" s="22"/>
       <c r="M725" s="5"/>
       <c r="N725" s="5"/>
       <c r="O725" s="5"/>
@@ -7110,6 +9159,7 @@
     </row>
     <row r="726" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D726" s="6"/>
+      <c r="L726" s="22"/>
       <c r="M726" s="5"/>
       <c r="N726" s="5"/>
       <c r="O726" s="5"/>
@@ -7119,6 +9169,7 @@
     </row>
     <row r="727" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D727" s="6"/>
+      <c r="L727" s="22"/>
       <c r="M727" s="5"/>
       <c r="N727" s="5"/>
       <c r="O727" s="5"/>
@@ -7128,6 +9179,7 @@
     </row>
     <row r="728" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D728" s="6"/>
+      <c r="L728" s="22"/>
       <c r="M728" s="5"/>
       <c r="N728" s="5"/>
       <c r="O728" s="5"/>
@@ -7137,6 +9189,7 @@
     </row>
     <row r="729" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D729" s="6"/>
+      <c r="L729" s="22"/>
       <c r="M729" s="5"/>
       <c r="N729" s="5"/>
       <c r="O729" s="5"/>
@@ -7146,6 +9199,7 @@
     </row>
     <row r="730" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D730" s="6"/>
+      <c r="L730" s="22"/>
       <c r="M730" s="5"/>
       <c r="N730" s="5"/>
       <c r="O730" s="5"/>
@@ -7155,6 +9209,7 @@
     </row>
     <row r="731" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D731" s="6"/>
+      <c r="L731" s="22"/>
       <c r="M731" s="5"/>
       <c r="N731" s="5"/>
       <c r="O731" s="5"/>
@@ -7164,6 +9219,7 @@
     </row>
     <row r="732" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D732" s="6"/>
+      <c r="L732" s="22"/>
       <c r="M732" s="5"/>
       <c r="N732" s="5"/>
       <c r="O732" s="5"/>
@@ -7173,6 +9229,7 @@
     </row>
     <row r="733" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D733" s="6"/>
+      <c r="L733" s="22"/>
       <c r="M733" s="5"/>
       <c r="N733" s="5"/>
       <c r="O733" s="5"/>
@@ -7182,6 +9239,7 @@
     </row>
     <row r="734" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D734" s="6"/>
+      <c r="L734" s="22"/>
       <c r="M734" s="5"/>
       <c r="N734" s="5"/>
       <c r="O734" s="5"/>
@@ -7191,6 +9249,7 @@
     </row>
     <row r="735" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D735" s="6"/>
+      <c r="L735" s="22"/>
       <c r="M735" s="5"/>
       <c r="N735" s="5"/>
       <c r="O735" s="5"/>
@@ -7200,6 +9259,7 @@
     </row>
     <row r="736" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D736" s="6"/>
+      <c r="L736" s="22"/>
       <c r="M736" s="5"/>
       <c r="N736" s="5"/>
       <c r="O736" s="5"/>
@@ -7209,6 +9269,7 @@
     </row>
     <row r="737" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D737" s="6"/>
+      <c r="L737" s="22"/>
       <c r="M737" s="5"/>
       <c r="N737" s="5"/>
       <c r="O737" s="5"/>
@@ -7218,6 +9279,7 @@
     </row>
     <row r="738" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D738" s="6"/>
+      <c r="L738" s="22"/>
       <c r="M738" s="5"/>
       <c r="N738" s="5"/>
       <c r="O738" s="5"/>
@@ -7227,6 +9289,7 @@
     </row>
     <row r="739" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D739" s="6"/>
+      <c r="L739" s="22"/>
       <c r="M739" s="5"/>
       <c r="N739" s="5"/>
       <c r="O739" s="5"/>
@@ -7236,6 +9299,7 @@
     </row>
     <row r="740" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D740" s="6"/>
+      <c r="L740" s="22"/>
       <c r="M740" s="5"/>
       <c r="N740" s="5"/>
       <c r="O740" s="5"/>
@@ -7245,6 +9309,7 @@
     </row>
     <row r="741" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D741" s="6"/>
+      <c r="L741" s="22"/>
       <c r="M741" s="5"/>
       <c r="N741" s="5"/>
       <c r="O741" s="5"/>
@@ -7254,6 +9319,7 @@
     </row>
     <row r="742" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D742" s="6"/>
+      <c r="L742" s="22"/>
       <c r="M742" s="5"/>
       <c r="N742" s="5"/>
       <c r="O742" s="5"/>
@@ -7263,6 +9329,7 @@
     </row>
     <row r="743" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D743" s="6"/>
+      <c r="L743" s="22"/>
       <c r="M743" s="5"/>
       <c r="N743" s="5"/>
       <c r="O743" s="5"/>
@@ -7272,6 +9339,7 @@
     </row>
     <row r="744" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D744" s="6"/>
+      <c r="L744" s="22"/>
       <c r="M744" s="5"/>
       <c r="N744" s="5"/>
       <c r="O744" s="5"/>
@@ -7281,6 +9349,7 @@
     </row>
     <row r="745" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D745" s="6"/>
+      <c r="L745" s="22"/>
       <c r="M745" s="5"/>
       <c r="N745" s="5"/>
       <c r="O745" s="5"/>
@@ -7290,6 +9359,7 @@
     </row>
     <row r="746" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D746" s="6"/>
+      <c r="L746" s="22"/>
       <c r="M746" s="5"/>
       <c r="N746" s="5"/>
       <c r="O746" s="5"/>
@@ -7299,6 +9369,7 @@
     </row>
     <row r="747" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D747" s="6"/>
+      <c r="L747" s="22"/>
       <c r="M747" s="5"/>
       <c r="N747" s="5"/>
       <c r="O747" s="5"/>
@@ -7308,6 +9379,7 @@
     </row>
     <row r="748" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D748" s="6"/>
+      <c r="L748" s="22"/>
       <c r="M748" s="5"/>
       <c r="N748" s="5"/>
       <c r="O748" s="5"/>
@@ -7317,6 +9389,7 @@
     </row>
     <row r="749" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D749" s="6"/>
+      <c r="L749" s="22"/>
       <c r="M749" s="5"/>
       <c r="N749" s="5"/>
       <c r="O749" s="5"/>
@@ -7326,6 +9399,7 @@
     </row>
     <row r="750" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D750" s="6"/>
+      <c r="L750" s="22"/>
       <c r="M750" s="5"/>
       <c r="N750" s="5"/>
       <c r="O750" s="5"/>
@@ -7335,6 +9409,7 @@
     </row>
     <row r="751" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D751" s="6"/>
+      <c r="L751" s="22"/>
       <c r="M751" s="5"/>
       <c r="N751" s="5"/>
       <c r="O751" s="5"/>
@@ -7344,6 +9419,7 @@
     </row>
     <row r="752" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D752" s="6"/>
+      <c r="L752" s="22"/>
       <c r="M752" s="5"/>
       <c r="N752" s="5"/>
       <c r="O752" s="5"/>
@@ -7353,6 +9429,7 @@
     </row>
     <row r="753" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D753" s="6"/>
+      <c r="L753" s="22"/>
       <c r="M753" s="5"/>
       <c r="N753" s="5"/>
       <c r="O753" s="5"/>
@@ -7362,6 +9439,7 @@
     </row>
     <row r="754" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D754" s="6"/>
+      <c r="L754" s="22"/>
       <c r="M754" s="5"/>
       <c r="N754" s="5"/>
       <c r="O754" s="5"/>
@@ -7371,6 +9449,7 @@
     </row>
     <row r="755" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D755" s="6"/>
+      <c r="L755" s="22"/>
       <c r="M755" s="5"/>
       <c r="N755" s="5"/>
       <c r="O755" s="5"/>
@@ -7380,6 +9459,7 @@
     </row>
     <row r="756" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D756" s="6"/>
+      <c r="L756" s="22"/>
       <c r="M756" s="5"/>
       <c r="N756" s="5"/>
       <c r="O756" s="5"/>
@@ -7389,6 +9469,7 @@
     </row>
     <row r="757" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D757" s="6"/>
+      <c r="L757" s="22"/>
       <c r="M757" s="5"/>
       <c r="N757" s="5"/>
       <c r="O757" s="5"/>
@@ -7398,6 +9479,7 @@
     </row>
     <row r="758" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D758" s="6"/>
+      <c r="L758" s="22"/>
       <c r="M758" s="5"/>
       <c r="N758" s="5"/>
       <c r="O758" s="5"/>
@@ -7407,6 +9489,7 @@
     </row>
     <row r="759" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D759" s="6"/>
+      <c r="L759" s="22"/>
       <c r="M759" s="5"/>
       <c r="N759" s="5"/>
       <c r="O759" s="5"/>
@@ -7416,6 +9499,7 @@
     </row>
     <row r="760" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D760" s="6"/>
+      <c r="L760" s="22"/>
       <c r="M760" s="5"/>
       <c r="N760" s="5"/>
       <c r="O760" s="5"/>
@@ -7425,6 +9509,7 @@
     </row>
     <row r="761" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D761" s="6"/>
+      <c r="L761" s="22"/>
       <c r="M761" s="5"/>
       <c r="N761" s="5"/>
       <c r="O761" s="5"/>
@@ -7434,6 +9519,7 @@
     </row>
     <row r="762" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D762" s="6"/>
+      <c r="L762" s="22"/>
       <c r="M762" s="5"/>
       <c r="N762" s="5"/>
       <c r="O762" s="5"/>
@@ -7443,6 +9529,7 @@
     </row>
     <row r="763" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D763" s="6"/>
+      <c r="L763" s="22"/>
       <c r="M763" s="5"/>
       <c r="N763" s="5"/>
       <c r="O763" s="5"/>
@@ -7452,6 +9539,7 @@
     </row>
     <row r="764" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D764" s="6"/>
+      <c r="L764" s="22"/>
       <c r="M764" s="5"/>
       <c r="N764" s="5"/>
       <c r="O764" s="5"/>
@@ -7461,6 +9549,7 @@
     </row>
     <row r="765" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D765" s="6"/>
+      <c r="L765" s="22"/>
       <c r="M765" s="5"/>
       <c r="N765" s="5"/>
       <c r="O765" s="5"/>
@@ -7470,6 +9559,7 @@
     </row>
     <row r="766" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D766" s="6"/>
+      <c r="L766" s="22"/>
       <c r="M766" s="5"/>
       <c r="N766" s="5"/>
       <c r="O766" s="5"/>
@@ -7479,6 +9569,7 @@
     </row>
     <row r="767" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D767" s="6"/>
+      <c r="L767" s="22"/>
       <c r="M767" s="5"/>
       <c r="N767" s="5"/>
       <c r="O767" s="5"/>
@@ -7488,6 +9579,7 @@
     </row>
     <row r="768" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D768" s="6"/>
+      <c r="L768" s="22"/>
       <c r="M768" s="5"/>
       <c r="N768" s="5"/>
       <c r="O768" s="5"/>
@@ -7497,6 +9589,7 @@
     </row>
     <row r="769" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D769" s="6"/>
+      <c r="L769" s="22"/>
       <c r="M769" s="5"/>
       <c r="N769" s="5"/>
       <c r="O769" s="5"/>
@@ -7506,6 +9599,7 @@
     </row>
     <row r="770" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D770" s="6"/>
+      <c r="L770" s="22"/>
       <c r="M770" s="5"/>
       <c r="N770" s="5"/>
       <c r="O770" s="5"/>
@@ -7515,6 +9609,7 @@
     </row>
     <row r="771" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D771" s="6"/>
+      <c r="L771" s="22"/>
       <c r="M771" s="5"/>
       <c r="N771" s="5"/>
       <c r="O771" s="5"/>
@@ -7524,6 +9619,7 @@
     </row>
     <row r="772" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D772" s="6"/>
+      <c r="L772" s="22"/>
       <c r="M772" s="5"/>
       <c r="N772" s="5"/>
       <c r="O772" s="5"/>
@@ -7533,6 +9629,7 @@
     </row>
     <row r="773" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D773" s="6"/>
+      <c r="L773" s="22"/>
       <c r="M773" s="5"/>
       <c r="N773" s="5"/>
       <c r="O773" s="5"/>
@@ -7542,6 +9639,7 @@
     </row>
     <row r="774" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D774" s="6"/>
+      <c r="L774" s="22"/>
       <c r="M774" s="5"/>
       <c r="N774" s="5"/>
       <c r="O774" s="5"/>
@@ -7551,6 +9649,7 @@
     </row>
     <row r="775" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D775" s="6"/>
+      <c r="L775" s="22"/>
       <c r="M775" s="5"/>
       <c r="N775" s="5"/>
       <c r="O775" s="5"/>
@@ -7560,6 +9659,7 @@
     </row>
     <row r="776" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D776" s="6"/>
+      <c r="L776" s="22"/>
       <c r="M776" s="5"/>
       <c r="N776" s="5"/>
       <c r="O776" s="5"/>
@@ -7569,6 +9669,7 @@
     </row>
     <row r="777" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D777" s="6"/>
+      <c r="L777" s="22"/>
       <c r="M777" s="5"/>
       <c r="N777" s="5"/>
       <c r="O777" s="5"/>
@@ -7578,6 +9679,7 @@
     </row>
     <row r="778" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D778" s="6"/>
+      <c r="L778" s="22"/>
       <c r="M778" s="5"/>
       <c r="N778" s="5"/>
       <c r="O778" s="5"/>
@@ -7587,6 +9689,7 @@
     </row>
     <row r="779" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D779" s="6"/>
+      <c r="L779" s="22"/>
       <c r="M779" s="5"/>
       <c r="N779" s="5"/>
       <c r="O779" s="5"/>
@@ -7596,6 +9699,7 @@
     </row>
     <row r="780" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D780" s="6"/>
+      <c r="L780" s="22"/>
       <c r="M780" s="5"/>
       <c r="N780" s="5"/>
       <c r="O780" s="5"/>
@@ -7605,6 +9709,7 @@
     </row>
     <row r="781" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D781" s="6"/>
+      <c r="L781" s="22"/>
       <c r="M781" s="5"/>
       <c r="N781" s="5"/>
       <c r="O781" s="5"/>
@@ -7614,6 +9719,7 @@
     </row>
     <row r="782" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D782" s="6"/>
+      <c r="L782" s="22"/>
       <c r="M782" s="5"/>
       <c r="N782" s="5"/>
       <c r="O782" s="5"/>
@@ -7623,6 +9729,7 @@
     </row>
     <row r="783" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D783" s="6"/>
+      <c r="L783" s="22"/>
       <c r="M783" s="5"/>
       <c r="N783" s="5"/>
       <c r="O783" s="5"/>
@@ -7632,6 +9739,7 @@
     </row>
     <row r="784" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D784" s="6"/>
+      <c r="L784" s="22"/>
       <c r="M784" s="5"/>
       <c r="N784" s="5"/>
       <c r="O784" s="5"/>
@@ -7641,6 +9749,7 @@
     </row>
     <row r="785" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D785" s="6"/>
+      <c r="L785" s="22"/>
       <c r="M785" s="5"/>
       <c r="N785" s="5"/>
       <c r="O785" s="5"/>
@@ -7650,6 +9759,7 @@
     </row>
     <row r="786" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D786" s="6"/>
+      <c r="L786" s="22"/>
       <c r="M786" s="5"/>
       <c r="N786" s="5"/>
       <c r="O786" s="5"/>
@@ -7659,6 +9769,7 @@
     </row>
     <row r="787" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D787" s="6"/>
+      <c r="L787" s="22"/>
       <c r="M787" s="5"/>
       <c r="N787" s="5"/>
       <c r="O787" s="5"/>
@@ -7668,6 +9779,7 @@
     </row>
     <row r="788" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D788" s="6"/>
+      <c r="L788" s="22"/>
       <c r="M788" s="5"/>
       <c r="N788" s="5"/>
       <c r="O788" s="5"/>
@@ -7677,6 +9789,7 @@
     </row>
     <row r="789" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D789" s="6"/>
+      <c r="L789" s="22"/>
       <c r="M789" s="5"/>
       <c r="N789" s="5"/>
       <c r="O789" s="5"/>
@@ -7686,6 +9799,7 @@
     </row>
     <row r="790" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D790" s="6"/>
+      <c r="L790" s="22"/>
       <c r="M790" s="5"/>
       <c r="N790" s="5"/>
       <c r="O790" s="5"/>
@@ -7695,6 +9809,7 @@
     </row>
     <row r="791" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D791" s="6"/>
+      <c r="L791" s="22"/>
       <c r="M791" s="5"/>
       <c r="N791" s="5"/>
       <c r="O791" s="5"/>
@@ -7704,6 +9819,7 @@
     </row>
     <row r="792" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D792" s="6"/>
+      <c r="L792" s="22"/>
       <c r="M792" s="5"/>
       <c r="N792" s="5"/>
       <c r="O792" s="5"/>
@@ -7713,6 +9829,7 @@
     </row>
     <row r="793" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D793" s="6"/>
+      <c r="L793" s="22"/>
       <c r="M793" s="5"/>
       <c r="N793" s="5"/>
       <c r="O793" s="5"/>
@@ -7722,6 +9839,7 @@
     </row>
     <row r="794" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D794" s="6"/>
+      <c r="L794" s="22"/>
       <c r="M794" s="5"/>
       <c r="N794" s="5"/>
       <c r="O794" s="5"/>
@@ -7731,6 +9849,7 @@
     </row>
     <row r="795" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D795" s="6"/>
+      <c r="L795" s="22"/>
       <c r="M795" s="5"/>
       <c r="N795" s="5"/>
       <c r="O795" s="5"/>
@@ -7740,6 +9859,7 @@
     </row>
     <row r="796" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D796" s="6"/>
+      <c r="L796" s="22"/>
       <c r="M796" s="5"/>
       <c r="N796" s="5"/>
       <c r="O796" s="5"/>
@@ -7749,6 +9869,7 @@
     </row>
     <row r="797" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D797" s="6"/>
+      <c r="L797" s="22"/>
       <c r="M797" s="5"/>
       <c r="N797" s="5"/>
       <c r="O797" s="5"/>
@@ -7758,6 +9879,7 @@
     </row>
     <row r="798" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D798" s="6"/>
+      <c r="L798" s="22"/>
       <c r="M798" s="5"/>
       <c r="N798" s="5"/>
       <c r="O798" s="5"/>
@@ -7767,6 +9889,7 @@
     </row>
     <row r="799" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D799" s="6"/>
+      <c r="L799" s="22"/>
       <c r="M799" s="5"/>
       <c r="N799" s="5"/>
       <c r="O799" s="5"/>
@@ -7776,6 +9899,7 @@
     </row>
     <row r="800" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D800" s="6"/>
+      <c r="L800" s="22"/>
       <c r="M800" s="5"/>
       <c r="N800" s="5"/>
       <c r="O800" s="5"/>
@@ -7785,6 +9909,7 @@
     </row>
     <row r="801" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D801" s="6"/>
+      <c r="L801" s="22"/>
       <c r="M801" s="5"/>
       <c r="N801" s="5"/>
       <c r="O801" s="5"/>
@@ -7794,6 +9919,7 @@
     </row>
     <row r="802" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D802" s="6"/>
+      <c r="L802" s="22"/>
       <c r="M802" s="5"/>
       <c r="N802" s="5"/>
       <c r="O802" s="5"/>
@@ -7803,6 +9929,7 @@
     </row>
     <row r="803" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D803" s="6"/>
+      <c r="L803" s="22"/>
       <c r="M803" s="5"/>
       <c r="N803" s="5"/>
       <c r="O803" s="5"/>
@@ -7812,6 +9939,7 @@
     </row>
     <row r="804" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D804" s="6"/>
+      <c r="L804" s="22"/>
       <c r="M804" s="5"/>
       <c r="N804" s="5"/>
       <c r="O804" s="5"/>
@@ -7821,6 +9949,7 @@
     </row>
     <row r="805" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D805" s="6"/>
+      <c r="L805" s="22"/>
       <c r="M805" s="5"/>
       <c r="N805" s="5"/>
       <c r="O805" s="5"/>
@@ -7830,6 +9959,7 @@
     </row>
     <row r="806" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D806" s="6"/>
+      <c r="L806" s="22"/>
       <c r="M806" s="5"/>
       <c r="N806" s="5"/>
       <c r="O806" s="5"/>
@@ -7839,6 +9969,7 @@
     </row>
     <row r="807" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D807" s="6"/>
+      <c r="L807" s="22"/>
       <c r="M807" s="5"/>
       <c r="N807" s="5"/>
       <c r="O807" s="5"/>
@@ -7848,6 +9979,7 @@
     </row>
     <row r="808" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D808" s="6"/>
+      <c r="L808" s="22"/>
       <c r="M808" s="5"/>
       <c r="N808" s="5"/>
       <c r="O808" s="5"/>
@@ -7857,6 +9989,7 @@
     </row>
     <row r="809" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D809" s="6"/>
+      <c r="L809" s="22"/>
       <c r="M809" s="5"/>
       <c r="N809" s="5"/>
       <c r="O809" s="5"/>
@@ -7866,6 +9999,7 @@
     </row>
     <row r="810" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D810" s="6"/>
+      <c r="L810" s="22"/>
       <c r="M810" s="5"/>
       <c r="N810" s="5"/>
       <c r="O810" s="5"/>
@@ -7875,6 +10009,7 @@
     </row>
     <row r="811" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D811" s="6"/>
+      <c r="L811" s="22"/>
       <c r="M811" s="5"/>
       <c r="N811" s="5"/>
       <c r="O811" s="5"/>
@@ -7884,6 +10019,7 @@
     </row>
     <row r="812" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D812" s="6"/>
+      <c r="L812" s="22"/>
       <c r="M812" s="5"/>
       <c r="N812" s="5"/>
       <c r="O812" s="5"/>
@@ -7893,6 +10029,7 @@
     </row>
     <row r="813" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D813" s="6"/>
+      <c r="L813" s="22"/>
       <c r="M813" s="5"/>
       <c r="N813" s="5"/>
       <c r="O813" s="5"/>
@@ -7902,6 +10039,7 @@
     </row>
     <row r="814" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D814" s="6"/>
+      <c r="L814" s="22"/>
       <c r="M814" s="5"/>
       <c r="N814" s="5"/>
       <c r="O814" s="5"/>
@@ -7911,6 +10049,7 @@
     </row>
     <row r="815" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D815" s="6"/>
+      <c r="L815" s="22"/>
       <c r="M815" s="5"/>
       <c r="N815" s="5"/>
       <c r="O815" s="5"/>
@@ -7920,6 +10059,7 @@
     </row>
     <row r="816" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D816" s="6"/>
+      <c r="L816" s="22"/>
       <c r="M816" s="5"/>
       <c r="N816" s="5"/>
       <c r="O816" s="5"/>
@@ -7929,6 +10069,7 @@
     </row>
     <row r="817" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D817" s="6"/>
+      <c r="L817" s="22"/>
       <c r="M817" s="5"/>
       <c r="N817" s="5"/>
       <c r="O817" s="5"/>
@@ -7938,6 +10079,7 @@
     </row>
     <row r="818" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D818" s="6"/>
+      <c r="L818" s="22"/>
       <c r="M818" s="5"/>
       <c r="N818" s="5"/>
       <c r="O818" s="5"/>
@@ -7947,6 +10089,7 @@
     </row>
     <row r="819" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D819" s="6"/>
+      <c r="L819" s="22"/>
       <c r="M819" s="5"/>
       <c r="N819" s="5"/>
       <c r="O819" s="5"/>
@@ -7956,6 +10099,7 @@
     </row>
     <row r="820" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D820" s="6"/>
+      <c r="L820" s="22"/>
       <c r="M820" s="5"/>
       <c r="N820" s="5"/>
       <c r="O820" s="5"/>
@@ -7965,6 +10109,7 @@
     </row>
     <row r="821" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D821" s="6"/>
+      <c r="L821" s="22"/>
       <c r="M821" s="5"/>
       <c r="N821" s="5"/>
       <c r="O821" s="5"/>
@@ -7974,6 +10119,7 @@
     </row>
     <row r="822" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D822" s="6"/>
+      <c r="L822" s="22"/>
       <c r="M822" s="5"/>
       <c r="N822" s="5"/>
       <c r="O822" s="5"/>
@@ -7983,6 +10129,7 @@
     </row>
     <row r="823" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D823" s="6"/>
+      <c r="L823" s="22"/>
       <c r="M823" s="5"/>
       <c r="N823" s="5"/>
       <c r="O823" s="5"/>
@@ -7992,6 +10139,7 @@
     </row>
     <row r="824" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D824" s="6"/>
+      <c r="L824" s="22"/>
       <c r="M824" s="5"/>
       <c r="N824" s="5"/>
       <c r="O824" s="5"/>
@@ -8001,6 +10149,7 @@
     </row>
     <row r="825" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D825" s="6"/>
+      <c r="L825" s="22"/>
       <c r="M825" s="5"/>
       <c r="N825" s="5"/>
       <c r="O825" s="5"/>
@@ -8010,6 +10159,7 @@
     </row>
     <row r="826" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D826" s="6"/>
+      <c r="L826" s="22"/>
       <c r="M826" s="5"/>
       <c r="N826" s="5"/>
       <c r="O826" s="5"/>
@@ -8019,6 +10169,7 @@
     </row>
     <row r="827" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D827" s="6"/>
+      <c r="L827" s="22"/>
       <c r="M827" s="5"/>
       <c r="N827" s="5"/>
       <c r="O827" s="5"/>
@@ -8028,6 +10179,7 @@
     </row>
     <row r="828" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D828" s="6"/>
+      <c r="L828" s="22"/>
       <c r="M828" s="5"/>
       <c r="N828" s="5"/>
       <c r="O828" s="5"/>
@@ -8037,6 +10189,7 @@
     </row>
     <row r="829" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D829" s="6"/>
+      <c r="L829" s="22"/>
       <c r="M829" s="5"/>
       <c r="N829" s="5"/>
       <c r="O829" s="5"/>
@@ -8046,6 +10199,7 @@
     </row>
     <row r="830" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D830" s="6"/>
+      <c r="L830" s="22"/>
       <c r="M830" s="5"/>
       <c r="N830" s="5"/>
       <c r="O830" s="5"/>
@@ -8055,6 +10209,7 @@
     </row>
     <row r="831" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D831" s="6"/>
+      <c r="L831" s="22"/>
       <c r="M831" s="5"/>
       <c r="N831" s="5"/>
       <c r="O831" s="5"/>
@@ -8064,6 +10219,7 @@
     </row>
     <row r="832" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D832" s="6"/>
+      <c r="L832" s="22"/>
       <c r="M832" s="5"/>
       <c r="N832" s="5"/>
       <c r="O832" s="5"/>
@@ -8073,6 +10229,7 @@
     </row>
     <row r="833" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D833" s="6"/>
+      <c r="L833" s="22"/>
       <c r="M833" s="5"/>
       <c r="N833" s="5"/>
       <c r="O833" s="5"/>
@@ -8082,6 +10239,7 @@
     </row>
     <row r="834" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D834" s="6"/>
+      <c r="L834" s="22"/>
       <c r="M834" s="5"/>
       <c r="N834" s="5"/>
       <c r="O834" s="5"/>
@@ -8091,6 +10249,7 @@
     </row>
     <row r="835" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D835" s="6"/>
+      <c r="L835" s="22"/>
       <c r="M835" s="5"/>
       <c r="N835" s="5"/>
       <c r="O835" s="5"/>
@@ -8100,6 +10259,7 @@
     </row>
     <row r="836" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D836" s="6"/>
+      <c r="L836" s="22"/>
       <c r="M836" s="5"/>
       <c r="N836" s="5"/>
       <c r="O836" s="5"/>
@@ -8109,6 +10269,7 @@
     </row>
     <row r="837" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D837" s="6"/>
+      <c r="L837" s="22"/>
       <c r="M837" s="5"/>
       <c r="N837" s="5"/>
       <c r="O837" s="5"/>
@@ -8118,6 +10279,7 @@
     </row>
     <row r="838" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D838" s="6"/>
+      <c r="L838" s="22"/>
       <c r="M838" s="5"/>
       <c r="N838" s="5"/>
       <c r="O838" s="5"/>
@@ -8127,6 +10289,7 @@
     </row>
     <row r="839" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D839" s="6"/>
+      <c r="L839" s="22"/>
       <c r="M839" s="5"/>
       <c r="N839" s="5"/>
       <c r="O839" s="5"/>
@@ -8136,6 +10299,7 @@
     </row>
     <row r="840" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D840" s="6"/>
+      <c r="L840" s="22"/>
       <c r="M840" s="5"/>
       <c r="N840" s="5"/>
       <c r="O840" s="5"/>
@@ -8145,6 +10309,7 @@
     </row>
     <row r="841" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D841" s="6"/>
+      <c r="L841" s="22"/>
       <c r="M841" s="5"/>
       <c r="N841" s="5"/>
       <c r="O841" s="5"/>
@@ -8154,6 +10319,7 @@
     </row>
     <row r="842" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D842" s="6"/>
+      <c r="L842" s="22"/>
       <c r="M842" s="5"/>
       <c r="N842" s="5"/>
       <c r="O842" s="5"/>
@@ -8163,6 +10329,7 @@
     </row>
     <row r="843" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D843" s="6"/>
+      <c r="L843" s="22"/>
       <c r="M843" s="5"/>
       <c r="N843" s="5"/>
       <c r="O843" s="5"/>
@@ -8172,6 +10339,7 @@
     </row>
     <row r="844" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D844" s="6"/>
+      <c r="L844" s="22"/>
       <c r="M844" s="5"/>
       <c r="N844" s="5"/>
       <c r="O844" s="5"/>
@@ -8181,6 +10349,7 @@
     </row>
     <row r="845" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D845" s="6"/>
+      <c r="L845" s="22"/>
       <c r="M845" s="5"/>
       <c r="N845" s="5"/>
       <c r="O845" s="5"/>
@@ -8190,6 +10359,7 @@
     </row>
     <row r="846" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D846" s="6"/>
+      <c r="L846" s="22"/>
       <c r="M846" s="5"/>
       <c r="N846" s="5"/>
       <c r="O846" s="5"/>
@@ -8199,6 +10369,7 @@
     </row>
     <row r="847" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D847" s="6"/>
+      <c r="L847" s="22"/>
       <c r="M847" s="5"/>
       <c r="N847" s="5"/>
       <c r="O847" s="5"/>
@@ -8208,6 +10379,7 @@
     </row>
     <row r="848" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D848" s="6"/>
+      <c r="L848" s="22"/>
       <c r="M848" s="5"/>
       <c r="N848" s="5"/>
       <c r="O848" s="5"/>
@@ -8217,6 +10389,7 @@
     </row>
     <row r="849" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D849" s="6"/>
+      <c r="L849" s="22"/>
       <c r="M849" s="5"/>
       <c r="N849" s="5"/>
       <c r="O849" s="5"/>
@@ -8226,6 +10399,7 @@
     </row>
     <row r="850" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D850" s="6"/>
+      <c r="L850" s="22"/>
       <c r="M850" s="5"/>
       <c r="N850" s="5"/>
       <c r="O850" s="5"/>
@@ -8235,6 +10409,7 @@
     </row>
     <row r="851" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D851" s="6"/>
+      <c r="L851" s="22"/>
       <c r="M851" s="5"/>
       <c r="N851" s="5"/>
       <c r="O851" s="5"/>
@@ -8244,6 +10419,7 @@
     </row>
     <row r="852" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D852" s="6"/>
+      <c r="L852" s="22"/>
       <c r="M852" s="5"/>
       <c r="N852" s="5"/>
       <c r="O852" s="5"/>
@@ -8253,6 +10429,7 @@
     </row>
     <row r="853" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D853" s="6"/>
+      <c r="L853" s="22"/>
       <c r="M853" s="5"/>
       <c r="N853" s="5"/>
       <c r="O853" s="5"/>
@@ -8262,6 +10439,7 @@
     </row>
     <row r="854" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D854" s="6"/>
+      <c r="L854" s="22"/>
       <c r="M854" s="5"/>
       <c r="N854" s="5"/>
       <c r="O854" s="5"/>
@@ -8271,6 +10449,7 @@
     </row>
     <row r="855" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D855" s="6"/>
+      <c r="L855" s="22"/>
       <c r="M855" s="5"/>
       <c r="N855" s="5"/>
       <c r="O855" s="5"/>
@@ -8280,6 +10459,7 @@
     </row>
     <row r="856" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D856" s="6"/>
+      <c r="L856" s="22"/>
       <c r="M856" s="5"/>
       <c r="N856" s="5"/>
       <c r="O856" s="5"/>
@@ -8289,6 +10469,7 @@
     </row>
     <row r="857" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D857" s="6"/>
+      <c r="L857" s="22"/>
       <c r="M857" s="5"/>
       <c r="N857" s="5"/>
       <c r="O857" s="5"/>
@@ -8298,6 +10479,7 @@
     </row>
     <row r="858" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D858" s="6"/>
+      <c r="L858" s="22"/>
       <c r="M858" s="5"/>
       <c r="N858" s="5"/>
       <c r="O858" s="5"/>
@@ -8307,6 +10489,7 @@
     </row>
     <row r="859" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D859" s="6"/>
+      <c r="L859" s="22"/>
       <c r="M859" s="5"/>
       <c r="N859" s="5"/>
       <c r="O859" s="5"/>
@@ -8316,6 +10499,7 @@
     </row>
     <row r="860" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D860" s="6"/>
+      <c r="L860" s="22"/>
       <c r="M860" s="5"/>
       <c r="N860" s="5"/>
       <c r="O860" s="5"/>
@@ -8325,6 +10509,7 @@
     </row>
     <row r="861" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D861" s="6"/>
+      <c r="L861" s="22"/>
       <c r="M861" s="5"/>
       <c r="N861" s="5"/>
       <c r="O861" s="5"/>
@@ -8334,6 +10519,7 @@
     </row>
     <row r="862" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D862" s="6"/>
+      <c r="L862" s="22"/>
       <c r="M862" s="5"/>
       <c r="N862" s="5"/>
       <c r="O862" s="5"/>
@@ -8343,6 +10529,7 @@
     </row>
     <row r="863" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D863" s="6"/>
+      <c r="L863" s="22"/>
       <c r="M863" s="5"/>
       <c r="N863" s="5"/>
       <c r="O863" s="5"/>
@@ -8352,6 +10539,7 @@
     </row>
     <row r="864" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D864" s="6"/>
+      <c r="L864" s="22"/>
       <c r="M864" s="5"/>
       <c r="N864" s="5"/>
       <c r="O864" s="5"/>
@@ -8361,6 +10549,7 @@
     </row>
     <row r="865" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D865" s="6"/>
+      <c r="L865" s="22"/>
       <c r="M865" s="5"/>
       <c r="N865" s="5"/>
       <c r="O865" s="5"/>
@@ -8370,6 +10559,7 @@
     </row>
     <row r="866" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D866" s="6"/>
+      <c r="L866" s="22"/>
       <c r="M866" s="5"/>
       <c r="N866" s="5"/>
       <c r="O866" s="5"/>
@@ -8379,6 +10569,7 @@
     </row>
     <row r="867" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D867" s="6"/>
+      <c r="L867" s="22"/>
       <c r="M867" s="5"/>
       <c r="N867" s="5"/>
       <c r="O867" s="5"/>
@@ -8388,6 +10579,7 @@
     </row>
     <row r="868" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D868" s="6"/>
+      <c r="L868" s="22"/>
       <c r="M868" s="5"/>
       <c r="N868" s="5"/>
       <c r="O868" s="5"/>
@@ -8397,6 +10589,7 @@
     </row>
     <row r="869" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D869" s="6"/>
+      <c r="L869" s="22"/>
       <c r="M869" s="5"/>
       <c r="N869" s="5"/>
       <c r="O869" s="5"/>
@@ -8406,6 +10599,7 @@
     </row>
     <row r="870" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D870" s="6"/>
+      <c r="L870" s="22"/>
       <c r="M870" s="5"/>
       <c r="N870" s="5"/>
       <c r="O870" s="5"/>
@@ -8415,6 +10609,7 @@
     </row>
     <row r="871" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D871" s="6"/>
+      <c r="L871" s="22"/>
       <c r="M871" s="5"/>
       <c r="N871" s="5"/>
       <c r="O871" s="5"/>
@@ -8424,6 +10619,7 @@
     </row>
     <row r="872" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D872" s="6"/>
+      <c r="L872" s="22"/>
       <c r="M872" s="5"/>
       <c r="N872" s="5"/>
       <c r="O872" s="5"/>
@@ -8433,6 +10629,7 @@
     </row>
     <row r="873" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D873" s="6"/>
+      <c r="L873" s="22"/>
       <c r="M873" s="5"/>
       <c r="N873" s="5"/>
       <c r="O873" s="5"/>
@@ -8442,6 +10639,7 @@
     </row>
     <row r="874" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D874" s="6"/>
+      <c r="L874" s="22"/>
       <c r="M874" s="5"/>
       <c r="N874" s="5"/>
       <c r="O874" s="5"/>
@@ -8451,6 +10649,7 @@
     </row>
     <row r="875" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D875" s="6"/>
+      <c r="L875" s="22"/>
       <c r="M875" s="5"/>
       <c r="N875" s="5"/>
       <c r="O875" s="5"/>
@@ -8460,6 +10659,7 @@
     </row>
     <row r="876" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D876" s="6"/>
+      <c r="L876" s="22"/>
       <c r="M876" s="5"/>
       <c r="N876" s="5"/>
       <c r="O876" s="5"/>
@@ -8469,6 +10669,7 @@
     </row>
     <row r="877" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D877" s="6"/>
+      <c r="L877" s="22"/>
       <c r="M877" s="5"/>
       <c r="N877" s="5"/>
       <c r="O877" s="5"/>
@@ -8478,6 +10679,7 @@
     </row>
     <row r="878" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D878" s="6"/>
+      <c r="L878" s="22"/>
       <c r="M878" s="5"/>
       <c r="N878" s="5"/>
       <c r="O878" s="5"/>
@@ -8487,6 +10689,7 @@
     </row>
     <row r="879" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D879" s="6"/>
+      <c r="L879" s="22"/>
       <c r="M879" s="5"/>
       <c r="N879" s="5"/>
       <c r="O879" s="5"/>
@@ -8496,6 +10699,7 @@
     </row>
     <row r="880" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D880" s="6"/>
+      <c r="L880" s="22"/>
       <c r="M880" s="5"/>
       <c r="N880" s="5"/>
       <c r="O880" s="5"/>
@@ -8505,6 +10709,7 @@
     </row>
     <row r="881" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D881" s="6"/>
+      <c r="L881" s="22"/>
       <c r="M881" s="5"/>
       <c r="N881" s="5"/>
       <c r="O881" s="5"/>
@@ -8514,6 +10719,7 @@
     </row>
     <row r="882" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D882" s="6"/>
+      <c r="L882" s="22"/>
       <c r="M882" s="5"/>
       <c r="N882" s="5"/>
       <c r="O882" s="5"/>
@@ -8523,6 +10729,7 @@
     </row>
     <row r="883" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D883" s="6"/>
+      <c r="L883" s="22"/>
       <c r="M883" s="5"/>
       <c r="N883" s="5"/>
       <c r="O883" s="5"/>
@@ -8532,6 +10739,7 @@
     </row>
     <row r="884" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D884" s="6"/>
+      <c r="L884" s="22"/>
       <c r="M884" s="5"/>
       <c r="N884" s="5"/>
       <c r="O884" s="5"/>
@@ -8541,6 +10749,7 @@
     </row>
     <row r="885" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D885" s="6"/>
+      <c r="L885" s="22"/>
       <c r="M885" s="5"/>
       <c r="N885" s="5"/>
       <c r="O885" s="5"/>
@@ -8550,6 +10759,7 @@
     </row>
     <row r="886" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D886" s="6"/>
+      <c r="L886" s="22"/>
       <c r="M886" s="5"/>
       <c r="N886" s="5"/>
       <c r="O886" s="5"/>
@@ -8559,6 +10769,7 @@
     </row>
     <row r="887" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D887" s="6"/>
+      <c r="L887" s="22"/>
       <c r="M887" s="5"/>
       <c r="N887" s="5"/>
       <c r="O887" s="5"/>
@@ -8568,6 +10779,7 @@
     </row>
     <row r="888" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D888" s="6"/>
+      <c r="L888" s="22"/>
       <c r="M888" s="5"/>
       <c r="N888" s="5"/>
       <c r="O888" s="5"/>
@@ -8577,6 +10789,7 @@
     </row>
     <row r="889" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D889" s="6"/>
+      <c r="L889" s="22"/>
       <c r="M889" s="5"/>
       <c r="N889" s="5"/>
       <c r="O889" s="5"/>
@@ -8586,6 +10799,7 @@
     </row>
     <row r="890" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D890" s="6"/>
+      <c r="L890" s="22"/>
       <c r="M890" s="5"/>
       <c r="N890" s="5"/>
       <c r="O890" s="5"/>
@@ -8595,6 +10809,7 @@
     </row>
     <row r="891" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D891" s="6"/>
+      <c r="L891" s="22"/>
       <c r="M891" s="5"/>
       <c r="N891" s="5"/>
       <c r="O891" s="5"/>
@@ -8604,6 +10819,7 @@
     </row>
     <row r="892" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D892" s="6"/>
+      <c r="L892" s="22"/>
       <c r="M892" s="5"/>
       <c r="N892" s="5"/>
       <c r="O892" s="5"/>
@@ -8613,6 +10829,7 @@
     </row>
     <row r="893" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D893" s="6"/>
+      <c r="L893" s="22"/>
       <c r="M893" s="5"/>
       <c r="N893" s="5"/>
       <c r="O893" s="5"/>
@@ -8622,6 +10839,7 @@
     </row>
     <row r="894" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D894" s="6"/>
+      <c r="L894" s="22"/>
       <c r="M894" s="5"/>
       <c r="N894" s="5"/>
       <c r="O894" s="5"/>
@@ -8631,6 +10849,7 @@
     </row>
     <row r="895" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D895" s="6"/>
+      <c r="L895" s="22"/>
       <c r="M895" s="5"/>
       <c r="N895" s="5"/>
       <c r="O895" s="5"/>
@@ -8640,6 +10859,7 @@
     </row>
     <row r="896" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D896" s="6"/>
+      <c r="L896" s="22"/>
       <c r="M896" s="5"/>
       <c r="N896" s="5"/>
       <c r="O896" s="5"/>
@@ -8649,6 +10869,7 @@
     </row>
     <row r="897" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D897" s="6"/>
+      <c r="L897" s="22"/>
       <c r="M897" s="5"/>
       <c r="N897" s="5"/>
       <c r="O897" s="5"/>
@@ -8658,6 +10879,7 @@
     </row>
     <row r="898" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D898" s="6"/>
+      <c r="L898" s="22"/>
       <c r="M898" s="5"/>
       <c r="N898" s="5"/>
       <c r="O898" s="5"/>
@@ -8667,6 +10889,7 @@
     </row>
     <row r="899" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D899" s="6"/>
+      <c r="L899" s="22"/>
       <c r="M899" s="5"/>
       <c r="N899" s="5"/>
       <c r="O899" s="5"/>
@@ -8676,6 +10899,7 @@
     </row>
     <row r="900" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D900" s="6"/>
+      <c r="L900" s="22"/>
       <c r="M900" s="5"/>
       <c r="N900" s="5"/>
       <c r="O900" s="5"/>
@@ -8685,6 +10909,7 @@
     </row>
     <row r="901" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D901" s="6"/>
+      <c r="L901" s="22"/>
       <c r="M901" s="5"/>
       <c r="N901" s="5"/>
       <c r="O901" s="5"/>
@@ -8694,6 +10919,7 @@
     </row>
     <row r="902" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D902" s="6"/>
+      <c r="L902" s="22"/>
       <c r="M902" s="5"/>
       <c r="N902" s="5"/>
       <c r="O902" s="5"/>
@@ -8703,6 +10929,7 @@
     </row>
     <row r="903" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D903" s="6"/>
+      <c r="L903" s="22"/>
       <c r="M903" s="5"/>
       <c r="N903" s="5"/>
       <c r="O903" s="5"/>
@@ -8712,6 +10939,7 @@
     </row>
     <row r="904" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D904" s="6"/>
+      <c r="L904" s="22"/>
       <c r="M904" s="5"/>
       <c r="N904" s="5"/>
       <c r="O904" s="5"/>
@@ -8721,6 +10949,7 @@
     </row>
     <row r="905" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D905" s="6"/>
+      <c r="L905" s="22"/>
       <c r="M905" s="5"/>
       <c r="N905" s="5"/>
       <c r="O905" s="5"/>
@@ -8730,6 +10959,7 @@
     </row>
     <row r="906" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D906" s="6"/>
+      <c r="L906" s="22"/>
       <c r="M906" s="5"/>
       <c r="N906" s="5"/>
       <c r="O906" s="5"/>
@@ -8739,6 +10969,7 @@
     </row>
     <row r="907" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D907" s="6"/>
+      <c r="L907" s="22"/>
       <c r="M907" s="5"/>
       <c r="N907" s="5"/>
       <c r="O907" s="5"/>
@@ -8748,6 +10979,7 @@
     </row>
     <row r="908" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D908" s="6"/>
+      <c r="L908" s="22"/>
       <c r="M908" s="5"/>
       <c r="N908" s="5"/>
       <c r="O908" s="5"/>
@@ -8757,6 +10989,7 @@
     </row>
     <row r="909" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D909" s="6"/>
+      <c r="L909" s="22"/>
       <c r="M909" s="5"/>
       <c r="N909" s="5"/>
       <c r="O909" s="5"/>
@@ -8766,6 +10999,7 @@
     </row>
     <row r="910" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D910" s="6"/>
+      <c r="L910" s="22"/>
       <c r="M910" s="5"/>
       <c r="N910" s="5"/>
       <c r="O910" s="5"/>
@@ -8775,6 +11009,7 @@
     </row>
     <row r="911" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D911" s="6"/>
+      <c r="L911" s="22"/>
       <c r="M911" s="5"/>
       <c r="N911" s="5"/>
       <c r="O911" s="5"/>
@@ -8784,6 +11019,7 @@
     </row>
     <row r="912" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D912" s="6"/>
+      <c r="L912" s="22"/>
       <c r="M912" s="5"/>
       <c r="N912" s="5"/>
       <c r="O912" s="5"/>
@@ -8793,6 +11029,7 @@
     </row>
     <row r="913" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D913" s="6"/>
+      <c r="L913" s="22"/>
       <c r="M913" s="5"/>
       <c r="N913" s="5"/>
       <c r="O913" s="5"/>
@@ -8802,6 +11039,7 @@
     </row>
     <row r="914" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D914" s="6"/>
+      <c r="L914" s="22"/>
       <c r="M914" s="5"/>
       <c r="N914" s="5"/>
       <c r="O914" s="5"/>
@@ -8811,6 +11049,7 @@
     </row>
     <row r="915" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D915" s="6"/>
+      <c r="L915" s="22"/>
       <c r="M915" s="5"/>
       <c r="N915" s="5"/>
       <c r="O915" s="5"/>
@@ -8820,6 +11059,7 @@
     </row>
     <row r="916" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D916" s="6"/>
+      <c r="L916" s="22"/>
       <c r="M916" s="5"/>
       <c r="N916" s="5"/>
       <c r="O916" s="5"/>
@@ -8829,6 +11069,7 @@
     </row>
     <row r="917" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D917" s="6"/>
+      <c r="L917" s="22"/>
       <c r="M917" s="5"/>
       <c r="N917" s="5"/>
       <c r="O917" s="5"/>
@@ -8838,6 +11079,7 @@
     </row>
     <row r="918" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D918" s="6"/>
+      <c r="L918" s="22"/>
       <c r="M918" s="5"/>
       <c r="N918" s="5"/>
       <c r="O918" s="5"/>
@@ -8847,6 +11089,7 @@
     </row>
     <row r="919" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D919" s="6"/>
+      <c r="L919" s="22"/>
       <c r="M919" s="5"/>
       <c r="N919" s="5"/>
       <c r="O919" s="5"/>
@@ -8856,6 +11099,7 @@
     </row>
     <row r="920" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D920" s="6"/>
+      <c r="L920" s="22"/>
       <c r="M920" s="5"/>
       <c r="N920" s="5"/>
       <c r="O920" s="5"/>
@@ -8865,6 +11109,7 @@
     </row>
     <row r="921" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D921" s="6"/>
+      <c r="L921" s="22"/>
       <c r="M921" s="5"/>
       <c r="N921" s="5"/>
       <c r="O921" s="5"/>
@@ -8874,6 +11119,7 @@
     </row>
     <row r="922" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D922" s="6"/>
+      <c r="L922" s="22"/>
       <c r="M922" s="5"/>
       <c r="N922" s="5"/>
       <c r="O922" s="5"/>
@@ -9350,14 +11596,205 @@
       <c r="D1010" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="195">
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="F1:L4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="H200:P200"/>
+    <mergeCell ref="F1:Q4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LFecha de generación: &amp;D &amp;T&amp;RPágina: &amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;LCompañia Licorera de Nicaragua. S.A.</oddFooter>
